--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_10_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_10_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-681230.7890948618</v>
+        <v>-683878.627705451</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9088595.341650041</v>
+        <v>9088595.341650046</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673439</v>
+        <v>603248.4937673423</v>
       </c>
     </row>
     <row r="9">
@@ -662,53 +662,53 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>12.35200489467393</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="F2" t="n">
+      <c r="S2" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="G2" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>19.72183703821129</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,26 +735,26 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>24.30129424928645</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="Y3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -856,28 +856,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>22.44875936050941</v>
+      </c>
+      <c r="V4" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="S4" t="n">
-        <v>19.72731862540289</v>
-      </c>
-      <c r="T4" t="n">
+      <c r="W4" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.361305680129117</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>27.59002526031614</v>
+        <v>24.63929263985502</v>
       </c>
       <c r="G5" t="n">
-        <v>27.59002526031614</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,58 +972,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>23.55470292302859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>24.30129424928645</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1054,73 +1054,73 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>22.26949182588285</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.1792675346265591</v>
+      </c>
+      <c r="X7" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="F7" t="n">
+      <c r="Y7" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>48.86666420529016</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1178,16 +1178,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>47.78965021130591</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>48.86666420528903</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>48.86666420528903</v>
       </c>
       <c r="U8" t="n">
-        <v>48.86666420529016</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>47.78965021130377</v>
       </c>
     </row>
     <row r="9">
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>48.86666420528903</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>48.86666420528903</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>48.86666420528903</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>43.04175783201856</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>42.29516650576171</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>48.86666420529016</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>48.86666420529016</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>48.86666420529016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>35.45363917478997</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>48.86666420528903</v>
       </c>
       <c r="G10" t="n">
-        <v>10.46270661379835</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>48.86666420529016</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>48.86666420528903</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>48.86666420529016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>344.9365983760775</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9869900142994</v>
@@ -1424,7 +1424,7 @@
         <v>204.2036648792234</v>
       </c>
       <c r="U11" t="n">
-        <v>183.799265243455</v>
+        <v>251.0003931077696</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>97.23280988996132</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>39.29599471922917</v>
+        <v>90.24847865816386</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>67.39192236252686</v>
       </c>
       <c r="T13" t="n">
         <v>219.6740348431758</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>333.2440614682366</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>407.0089597543291</v>
+        <v>410.9869900142994</v>
       </c>
       <c r="H14" t="n">
         <v>295.2761530228343</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>134.6080073581921</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0550836044979</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>145.0152993494963</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>97.23280988996132</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>190.2792147611264</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.6740348431758</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2134350426385</v>
       </c>
       <c r="V16" t="n">
-        <v>89.73711924326668</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>340.2196906613992</v>
+        <v>340.2196906613989</v>
       </c>
       <c r="C17" t="n">
-        <v>322.7587407689261</v>
+        <v>322.7587407689259</v>
       </c>
       <c r="D17" t="n">
-        <v>312.1688906186016</v>
+        <v>312.1688906186013</v>
       </c>
       <c r="E17" t="n">
-        <v>339.4162190701804</v>
+        <v>339.4162190701801</v>
       </c>
       <c r="F17" t="n">
-        <v>364.3618947396301</v>
+        <v>364.3618947396298</v>
       </c>
       <c r="G17" t="n">
-        <v>368.4728390122181</v>
+        <v>368.4728390122178</v>
       </c>
       <c r="H17" t="n">
-        <v>252.7620020207529</v>
+        <v>252.7620020207526</v>
       </c>
       <c r="I17" t="n">
-        <v>1.578883042358711</v>
+        <v>1.578883042358477</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.16082240887192</v>
+        <v>68.1608224088717</v>
       </c>
       <c r="T17" t="n">
-        <v>161.689513877142</v>
+        <v>161.6895138771418</v>
       </c>
       <c r="U17" t="n">
-        <v>208.4862421056883</v>
+        <v>208.486242105688</v>
       </c>
       <c r="V17" t="n">
-        <v>285.2381074680535</v>
+        <v>285.2381074680533</v>
       </c>
       <c r="W17" t="n">
-        <v>306.7268177153317</v>
+        <v>306.7268177153314</v>
       </c>
       <c r="X17" t="n">
-        <v>327.2169496763877</v>
+        <v>327.2169496763874</v>
       </c>
       <c r="Y17" t="n">
-        <v>343.7237876539722</v>
+        <v>343.723787653972</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>137.3178291798559</v>
+        <v>137.3178291798557</v>
       </c>
       <c r="C19" t="n">
-        <v>124.7326700965465</v>
+        <v>124.7326700965462</v>
       </c>
       <c r="D19" t="n">
-        <v>106.101322016131</v>
+        <v>106.1013220161308</v>
       </c>
       <c r="E19" t="n">
-        <v>103.9198116444878</v>
+        <v>103.9198116444876</v>
       </c>
       <c r="F19" t="n">
-        <v>102.9068970208499</v>
+        <v>102.9068970208496</v>
       </c>
       <c r="G19" t="n">
-        <v>123.5409326024165</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>102.5011483474147</v>
       </c>
       <c r="I19" t="n">
-        <v>54.71865888787994</v>
+        <v>40.33801358851717</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>12.31389810171374</v>
+        <v>47.73432765608226</v>
       </c>
       <c r="S19" t="n">
-        <v>147.765063759045</v>
+        <v>147.7650637590448</v>
       </c>
       <c r="T19" t="n">
-        <v>177.1598838410945</v>
+        <v>177.1598838410942</v>
       </c>
       <c r="U19" t="n">
-        <v>243.6992840405571</v>
+        <v>243.6992840405569</v>
       </c>
       <c r="V19" t="n">
-        <v>209.6234923217466</v>
+        <v>209.6234923217464</v>
       </c>
       <c r="W19" t="n">
-        <v>244.0088473345096</v>
+        <v>244.0088473345094</v>
       </c>
       <c r="X19" t="n">
-        <v>183.1955043869558</v>
+        <v>183.1955043869555</v>
       </c>
       <c r="Y19" t="n">
-        <v>176.0705023500134</v>
+        <v>176.0705023500132</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>340.2196906613992</v>
+        <v>340.2196906613989</v>
       </c>
       <c r="C20" t="n">
-        <v>322.7587407689261</v>
+        <v>322.7587407689259</v>
       </c>
       <c r="D20" t="n">
-        <v>312.1688906186016</v>
+        <v>312.1688906186013</v>
       </c>
       <c r="E20" t="n">
-        <v>339.4162190701804</v>
+        <v>339.4162190701801</v>
       </c>
       <c r="F20" t="n">
-        <v>364.3618947396301</v>
+        <v>364.3618947396298</v>
       </c>
       <c r="G20" t="n">
-        <v>368.4728390122181</v>
+        <v>368.4728390122178</v>
       </c>
       <c r="H20" t="n">
-        <v>252.7620020207529</v>
+        <v>252.7620020207526</v>
       </c>
       <c r="I20" t="n">
-        <v>1.578883042358711</v>
+        <v>1.578883042358449</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.16082240887192</v>
+        <v>68.16082240887167</v>
       </c>
       <c r="T20" t="n">
-        <v>161.689513877142</v>
+        <v>161.6895138771417</v>
       </c>
       <c r="U20" t="n">
-        <v>208.4862421056883</v>
+        <v>208.486242105688</v>
       </c>
       <c r="V20" t="n">
-        <v>285.2381074680535</v>
+        <v>285.2381074680533</v>
       </c>
       <c r="W20" t="n">
-        <v>306.7268177153317</v>
+        <v>306.7268177153314</v>
       </c>
       <c r="X20" t="n">
-        <v>327.2169496763877</v>
+        <v>327.2169496763874</v>
       </c>
       <c r="Y20" t="n">
-        <v>343.7237876539722</v>
+        <v>343.723787653972</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>137.3178291798559</v>
+        <v>102.3031482989277</v>
       </c>
       <c r="C22" t="n">
-        <v>124.7326700965465</v>
+        <v>124.7326700965462</v>
       </c>
       <c r="D22" t="n">
-        <v>106.101322016131</v>
+        <v>106.1013220161307</v>
       </c>
       <c r="E22" t="n">
-        <v>103.9198116444878</v>
+        <v>103.9198116444875</v>
       </c>
       <c r="F22" t="n">
-        <v>102.9068970208499</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>123.5409326024162</v>
       </c>
       <c r="H22" t="n">
-        <v>88.12050304804764</v>
+        <v>102.5011483474146</v>
       </c>
       <c r="I22" t="n">
-        <v>54.71865888787995</v>
+        <v>54.71865888787969</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.73432765608248</v>
+        <v>47.73432765608223</v>
       </c>
       <c r="S22" t="n">
-        <v>147.765063759045</v>
+        <v>147.7650637590447</v>
       </c>
       <c r="T22" t="n">
-        <v>177.1598838410945</v>
+        <v>177.1598838410942</v>
       </c>
       <c r="U22" t="n">
-        <v>243.6992840405571</v>
+        <v>243.6992840405568</v>
       </c>
       <c r="V22" t="n">
-        <v>209.6234923217466</v>
+        <v>209.6234923217464</v>
       </c>
       <c r="W22" t="n">
-        <v>244.0088473345096</v>
+        <v>244.0088473345094</v>
       </c>
       <c r="X22" t="n">
-        <v>183.1955043869558</v>
+        <v>183.1955043869555</v>
       </c>
       <c r="Y22" t="n">
-        <v>176.0705023500134</v>
+        <v>176.0705023500132</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>340.2196906613992</v>
+        <v>340.2196906613989</v>
       </c>
       <c r="C23" t="n">
-        <v>322.7587407689261</v>
+        <v>322.7587407689259</v>
       </c>
       <c r="D23" t="n">
-        <v>312.1688906186016</v>
+        <v>312.1688906186013</v>
       </c>
       <c r="E23" t="n">
-        <v>339.4162190701799</v>
+        <v>339.4162190701801</v>
       </c>
       <c r="F23" t="n">
-        <v>364.3618947396301</v>
+        <v>364.3618947396298</v>
       </c>
       <c r="G23" t="n">
-        <v>368.4728390122181</v>
+        <v>368.4728390122178</v>
       </c>
       <c r="H23" t="n">
-        <v>252.7620020207529</v>
+        <v>252.7620020207526</v>
       </c>
       <c r="I23" t="n">
-        <v>1.578883042358711</v>
+        <v>1.578883042358449</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.16082240887192</v>
+        <v>68.16082240887167</v>
       </c>
       <c r="T23" t="n">
-        <v>161.689513877142</v>
+        <v>161.6895138771417</v>
       </c>
       <c r="U23" t="n">
-        <v>208.4862421056883</v>
+        <v>208.486242105688</v>
       </c>
       <c r="V23" t="n">
-        <v>285.2381074680535</v>
+        <v>285.2381074680533</v>
       </c>
       <c r="W23" t="n">
-        <v>306.7268177153317</v>
+        <v>306.7268177153314</v>
       </c>
       <c r="X23" t="n">
-        <v>327.2169496763877</v>
+        <v>327.2169496763874</v>
       </c>
       <c r="Y23" t="n">
-        <v>343.7237876539722</v>
+        <v>343.723787653972</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>137.3178291798559</v>
+        <v>137.3178291798557</v>
       </c>
       <c r="C25" t="n">
-        <v>92.91241421089376</v>
+        <v>124.7326700965462</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>106.1013220161307</v>
       </c>
       <c r="E25" t="n">
-        <v>103.9198116444878</v>
+        <v>103.9198116444875</v>
       </c>
       <c r="F25" t="n">
-        <v>102.9068970208499</v>
+        <v>102.9068970208496</v>
       </c>
       <c r="G25" t="n">
-        <v>123.5409326024165</v>
+        <v>123.5409326024162</v>
       </c>
       <c r="H25" t="n">
-        <v>102.5011483474149</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>54.71865888787995</v>
+        <v>54.71865888787968</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.73432765608248</v>
+        <v>47.73432765608223</v>
       </c>
       <c r="S25" t="n">
-        <v>147.765063759045</v>
+        <v>147.7650637590447</v>
       </c>
       <c r="T25" t="n">
-        <v>177.1598838410945</v>
+        <v>177.1598838410942</v>
       </c>
       <c r="U25" t="n">
-        <v>243.6992840405571</v>
+        <v>243.6992840405568</v>
       </c>
       <c r="V25" t="n">
-        <v>209.6234923217466</v>
+        <v>209.6234923217464</v>
       </c>
       <c r="W25" t="n">
-        <v>244.0088473345096</v>
+        <v>244.0088473345094</v>
       </c>
       <c r="X25" t="n">
-        <v>183.1955043869558</v>
+        <v>147.7750748325929</v>
       </c>
       <c r="Y25" t="n">
-        <v>176.0705023500134</v>
+        <v>176.0705023500132</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>340.2196906613992</v>
+        <v>340.2196906613989</v>
       </c>
       <c r="C26" t="n">
-        <v>322.7587407689261</v>
+        <v>322.7587407689258</v>
       </c>
       <c r="D26" t="n">
-        <v>312.1688906186016</v>
+        <v>312.1688906186013</v>
       </c>
       <c r="E26" t="n">
-        <v>339.4162190701804</v>
+        <v>339.4162190701801</v>
       </c>
       <c r="F26" t="n">
-        <v>364.3618947396301</v>
+        <v>364.3618947396297</v>
       </c>
       <c r="G26" t="n">
-        <v>368.4728390122181</v>
+        <v>368.4728390122177</v>
       </c>
       <c r="H26" t="n">
-        <v>252.7620020207529</v>
+        <v>252.7620020207525</v>
       </c>
       <c r="I26" t="n">
-        <v>1.578883042358711</v>
+        <v>1.57888304235837</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>68.16082240887192</v>
+        <v>68.16082240887158</v>
       </c>
       <c r="T26" t="n">
-        <v>161.689513877142</v>
+        <v>161.6895138771416</v>
       </c>
       <c r="U26" t="n">
-        <v>208.4862421056883</v>
+        <v>208.4862421056879</v>
       </c>
       <c r="V26" t="n">
-        <v>285.2381074680535</v>
+        <v>285.2381074680532</v>
       </c>
       <c r="W26" t="n">
-        <v>306.7268177153317</v>
+        <v>306.7268177153313</v>
       </c>
       <c r="X26" t="n">
-        <v>327.2169496763877</v>
+        <v>327.2169496763873</v>
       </c>
       <c r="Y26" t="n">
-        <v>343.7237876539722</v>
+        <v>343.7237876539718</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>137.3178291798559</v>
+        <v>137.3178291798556</v>
       </c>
       <c r="C28" t="n">
-        <v>124.7326700965465</v>
+        <v>124.7326700965461</v>
       </c>
       <c r="D28" t="n">
-        <v>72.09955575883434</v>
+        <v>22.89840300223442</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>103.9198116444875</v>
       </c>
       <c r="F28" t="n">
-        <v>102.9068970208499</v>
+        <v>102.9068970208495</v>
       </c>
       <c r="G28" t="n">
-        <v>123.5409326024165</v>
+        <v>123.5409326024161</v>
       </c>
       <c r="H28" t="n">
-        <v>102.5011483474149</v>
+        <v>102.5011483474146</v>
       </c>
       <c r="I28" t="n">
-        <v>54.71865888787994</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.73432765608248</v>
+        <v>47.73432765608214</v>
       </c>
       <c r="S28" t="n">
-        <v>147.765063759045</v>
+        <v>147.7650637590446</v>
       </c>
       <c r="T28" t="n">
-        <v>177.1598838410945</v>
+        <v>177.1598838410941</v>
       </c>
       <c r="U28" t="n">
-        <v>243.6992840405571</v>
+        <v>243.6992840405568</v>
       </c>
       <c r="V28" t="n">
-        <v>209.6234923217466</v>
+        <v>209.6234923217463</v>
       </c>
       <c r="W28" t="n">
-        <v>244.0088473345096</v>
+        <v>244.0088473345093</v>
       </c>
       <c r="X28" t="n">
-        <v>183.1955043869558</v>
+        <v>183.1955043869554</v>
       </c>
       <c r="Y28" t="n">
-        <v>176.0705023500134</v>
+        <v>176.0705023500131</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>340.2196906613992</v>
+        <v>340.2196906613989</v>
       </c>
       <c r="C29" t="n">
-        <v>322.7587407689261</v>
+        <v>322.7587407689258</v>
       </c>
       <c r="D29" t="n">
-        <v>312.1688906186016</v>
+        <v>312.1688906186013</v>
       </c>
       <c r="E29" t="n">
-        <v>339.4162190701804</v>
+        <v>339.4162190701801</v>
       </c>
       <c r="F29" t="n">
-        <v>364.3618947396301</v>
+        <v>364.3618947396297</v>
       </c>
       <c r="G29" t="n">
-        <v>368.4728390122181</v>
+        <v>368.4728390122177</v>
       </c>
       <c r="H29" t="n">
-        <v>252.7620020207529</v>
+        <v>252.7620020207525</v>
       </c>
       <c r="I29" t="n">
-        <v>1.578883042358711</v>
+        <v>1.57888304235837</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>68.16082240887192</v>
+        <v>68.16082240887158</v>
       </c>
       <c r="T29" t="n">
-        <v>161.689513877142</v>
+        <v>161.6895138771416</v>
       </c>
       <c r="U29" t="n">
-        <v>208.4862421056883</v>
+        <v>208.4862421056879</v>
       </c>
       <c r="V29" t="n">
-        <v>285.2381074680535</v>
+        <v>285.2381074680532</v>
       </c>
       <c r="W29" t="n">
-        <v>306.7268177153317</v>
+        <v>306.7268177153313</v>
       </c>
       <c r="X29" t="n">
-        <v>327.2169496763877</v>
+        <v>327.2169496763873</v>
       </c>
       <c r="Y29" t="n">
-        <v>343.7237876539722</v>
+        <v>343.7237876539718</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>137.3178291798559</v>
+        <v>137.3178291798556</v>
       </c>
       <c r="C31" t="n">
-        <v>124.7326700965465</v>
+        <v>124.7326700965461</v>
       </c>
       <c r="D31" t="n">
-        <v>106.101322016131</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>103.9198116444878</v>
+        <v>72.09955575884283</v>
       </c>
       <c r="F31" t="n">
-        <v>67.48646746648129</v>
+        <v>102.9068970208495</v>
       </c>
       <c r="G31" t="n">
-        <v>123.5409326024165</v>
+        <v>123.5409326024161</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>102.5011483474146</v>
       </c>
       <c r="I31" t="n">
-        <v>54.71865888787994</v>
+        <v>54.7186588878796</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.73432765608248</v>
+        <v>47.73432765608214</v>
       </c>
       <c r="S31" t="n">
-        <v>147.765063759045</v>
+        <v>147.7650637590446</v>
       </c>
       <c r="T31" t="n">
-        <v>177.1598838410945</v>
+        <v>177.1598838410941</v>
       </c>
       <c r="U31" t="n">
-        <v>243.6992840405571</v>
+        <v>243.6992840405568</v>
       </c>
       <c r="V31" t="n">
-        <v>209.6234923217466</v>
+        <v>209.6234923217463</v>
       </c>
       <c r="W31" t="n">
-        <v>244.0088473345096</v>
+        <v>244.0088473345093</v>
       </c>
       <c r="X31" t="n">
-        <v>183.1955043869558</v>
+        <v>183.1955043869554</v>
       </c>
       <c r="Y31" t="n">
-        <v>176.0705023500134</v>
+        <v>176.0705023500131</v>
       </c>
     </row>
     <row r="32">
@@ -3086,7 +3086,7 @@
         <v>202.7011351503099</v>
       </c>
       <c r="V32" t="n">
-        <v>279.4530005126752</v>
+        <v>279.4530005126751</v>
       </c>
       <c r="W32" t="n">
         <v>300.9417107599533</v>
@@ -3095,7 +3095,7 @@
         <v>321.4318427210093</v>
       </c>
       <c r="Y32" t="n">
-        <v>337.9386806985939</v>
+        <v>337.9386806985938</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>131.5327222244776</v>
+        <v>131.5327222244775</v>
       </c>
       <c r="C34" t="n">
         <v>118.9475631411681</v>
@@ -3193,19 +3193,19 @@
         <v>100.3162150607526</v>
       </c>
       <c r="E34" t="n">
-        <v>98.13470468910944</v>
+        <v>98.13470468910943</v>
       </c>
       <c r="F34" t="n">
-        <v>97.12179006547152</v>
+        <v>97.1217900654715</v>
       </c>
       <c r="G34" t="n">
         <v>117.7558256470381</v>
       </c>
       <c r="H34" t="n">
-        <v>96.71604139203654</v>
+        <v>96.71604139203653</v>
       </c>
       <c r="I34" t="n">
-        <v>48.93355193250159</v>
+        <v>48.93355193250158</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.94922070070413</v>
+        <v>41.94922070070445</v>
       </c>
       <c r="S34" t="n">
         <v>141.9799568036666</v>
@@ -3244,16 +3244,16 @@
         <v>237.9141770851787</v>
       </c>
       <c r="V34" t="n">
-        <v>203.8383853663683</v>
+        <v>203.8383853663682</v>
       </c>
       <c r="W34" t="n">
-        <v>238.2237403791313</v>
+        <v>238.2237403791312</v>
       </c>
       <c r="X34" t="n">
         <v>177.4103974315774</v>
       </c>
       <c r="Y34" t="n">
-        <v>170.2853953946351</v>
+        <v>170.285395394635</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.37571545349358</v>
+        <v>62.37571545349357</v>
       </c>
       <c r="T35" t="n">
         <v>155.9044069217637</v>
@@ -3442,7 +3442,7 @@
         <v>96.71604139203656</v>
       </c>
       <c r="I37" t="n">
-        <v>48.9335519325016</v>
+        <v>48.93355193250161</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.94922070070415</v>
+        <v>41.94922070070416</v>
       </c>
       <c r="S37" t="n">
         <v>141.9799568036667</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.37571545349358</v>
+        <v>62.37571545349357</v>
       </c>
       <c r="T38" t="n">
         <v>155.9044069217637</v>
@@ -3673,7 +3673,7 @@
         <v>97.12179006547153</v>
       </c>
       <c r="G40" t="n">
-        <v>117.7558256470381</v>
+        <v>117.7558256470382</v>
       </c>
       <c r="H40" t="n">
         <v>96.71604139203656</v>
@@ -3712,7 +3712,7 @@
         <v>141.9799568036667</v>
       </c>
       <c r="T40" t="n">
-        <v>171.3747768857161</v>
+        <v>171.3747768857166</v>
       </c>
       <c r="U40" t="n">
         <v>237.9141770851788</v>
@@ -3740,7 +3740,7 @@
         <v>334.4345837060209</v>
       </c>
       <c r="C41" t="n">
-        <v>316.9736338135478</v>
+        <v>316.9736338135479</v>
       </c>
       <c r="D41" t="n">
         <v>306.3837836632233</v>
@@ -3749,13 +3749,13 @@
         <v>333.6311121148021</v>
       </c>
       <c r="F41" t="n">
-        <v>358.5767877842517</v>
+        <v>358.5767877842518</v>
       </c>
       <c r="G41" t="n">
-        <v>362.6877320568397</v>
+        <v>362.6877320568398</v>
       </c>
       <c r="H41" t="n">
-        <v>246.9768950653745</v>
+        <v>246.9768950653746</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.37571545349361</v>
+        <v>62.37571545349368</v>
       </c>
       <c r="T41" t="n">
         <v>155.9044069217637</v>
       </c>
       <c r="U41" t="n">
-        <v>202.7011351503099</v>
+        <v>202.70113515031</v>
       </c>
       <c r="V41" t="n">
-        <v>279.4530005126752</v>
+        <v>279.4530005126753</v>
       </c>
       <c r="W41" t="n">
-        <v>300.9417107599533</v>
+        <v>300.9417107599534</v>
       </c>
       <c r="X41" t="n">
-        <v>321.4318427210093</v>
+        <v>321.4318427210094</v>
       </c>
       <c r="Y41" t="n">
         <v>337.9386806985939</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>131.5327222244776</v>
+        <v>131.5327222244777</v>
       </c>
       <c r="C43" t="n">
-        <v>118.9475631411681</v>
+        <v>118.9475631411682</v>
       </c>
       <c r="D43" t="n">
         <v>100.3162150607527</v>
       </c>
       <c r="E43" t="n">
-        <v>98.13470468910948</v>
+        <v>98.13470468910954</v>
       </c>
       <c r="F43" t="n">
-        <v>97.12179006547156</v>
+        <v>97.12179006547161</v>
       </c>
       <c r="G43" t="n">
         <v>117.7558256470382</v>
       </c>
       <c r="H43" t="n">
-        <v>96.71604139203659</v>
+        <v>96.71604139203664</v>
       </c>
       <c r="I43" t="n">
-        <v>48.93355193250163</v>
+        <v>48.93355193250169</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,22 +3943,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.94922070070417</v>
+        <v>41.94922070070422</v>
       </c>
       <c r="S43" t="n">
         <v>141.9799568036667</v>
       </c>
       <c r="T43" t="n">
-        <v>171.3747768857161</v>
+        <v>171.3747768857162</v>
       </c>
       <c r="U43" t="n">
         <v>237.9141770851788</v>
       </c>
       <c r="V43" t="n">
-        <v>203.8383853663683</v>
+        <v>203.8383853663684</v>
       </c>
       <c r="W43" t="n">
-        <v>238.2237403791313</v>
+        <v>238.2237403791314</v>
       </c>
       <c r="X43" t="n">
         <v>177.4103974315775</v>
@@ -3977,7 +3977,7 @@
         <v>334.4345837060209</v>
       </c>
       <c r="C44" t="n">
-        <v>316.9736338135478</v>
+        <v>316.9736338135479</v>
       </c>
       <c r="D44" t="n">
         <v>306.3837836632233</v>
@@ -3986,13 +3986,13 @@
         <v>333.6311121148021</v>
       </c>
       <c r="F44" t="n">
-        <v>358.5767877842517</v>
+        <v>358.5767877842518</v>
       </c>
       <c r="G44" t="n">
-        <v>362.6877320568397</v>
+        <v>362.6877320568398</v>
       </c>
       <c r="H44" t="n">
-        <v>246.9768950653745</v>
+        <v>246.9768950653746</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.37571545349361</v>
+        <v>62.37571545349367</v>
       </c>
       <c r="T44" t="n">
         <v>155.9044069217637</v>
       </c>
       <c r="U44" t="n">
-        <v>202.7011351503099</v>
+        <v>202.70113515031</v>
       </c>
       <c r="V44" t="n">
-        <v>279.4530005126752</v>
+        <v>279.4530005126753</v>
       </c>
       <c r="W44" t="n">
-        <v>300.9417107599533</v>
+        <v>300.9417107599534</v>
       </c>
       <c r="X44" t="n">
-        <v>321.4318427210093</v>
+        <v>321.4318427210094</v>
       </c>
       <c r="Y44" t="n">
         <v>337.9386806985939</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>131.5327222244776</v>
+        <v>131.5327222244777</v>
       </c>
       <c r="C46" t="n">
-        <v>118.9475631411681</v>
+        <v>118.9475631411682</v>
       </c>
       <c r="D46" t="n">
         <v>100.3162150607527</v>
       </c>
       <c r="E46" t="n">
-        <v>98.13470468910948</v>
+        <v>98.13470468910954</v>
       </c>
       <c r="F46" t="n">
-        <v>97.12179006547156</v>
+        <v>97.12179006547161</v>
       </c>
       <c r="G46" t="n">
         <v>117.7558256470382</v>
       </c>
       <c r="H46" t="n">
-        <v>96.71604139203659</v>
+        <v>96.71604139203664</v>
       </c>
       <c r="I46" t="n">
-        <v>48.93355193250164</v>
+        <v>48.93355193250169</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.94922070070416</v>
+        <v>41.94922070070422</v>
       </c>
       <c r="S46" t="n">
         <v>141.9799568036667</v>
       </c>
       <c r="T46" t="n">
-        <v>171.3747768857161</v>
+        <v>171.3747768857162</v>
       </c>
       <c r="U46" t="n">
         <v>237.9141770851788</v>
       </c>
       <c r="V46" t="n">
-        <v>203.8383853663683</v>
+        <v>203.8383853663684</v>
       </c>
       <c r="W46" t="n">
-        <v>238.2237403791313</v>
+        <v>238.2237403791314</v>
       </c>
       <c r="X46" t="n">
         <v>177.4103974315775</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>110.3601010412646</v>
+        <v>24.6100133913773</v>
       </c>
       <c r="C2" t="n">
-        <v>110.3601010412646</v>
+        <v>24.6100133913773</v>
       </c>
       <c r="D2" t="n">
-        <v>97.8833284203818</v>
+        <v>24.6100133913773</v>
       </c>
       <c r="E2" t="n">
-        <v>70.01461603622408</v>
+        <v>24.6100133913773</v>
       </c>
       <c r="F2" t="n">
-        <v>42.14590365206637</v>
+        <v>17.66451264217383</v>
       </c>
       <c r="G2" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H2" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I2" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J2" t="n">
         <v>2.207202020825291</v>
@@ -4349,31 +4349,31 @@
         <v>110.3601010412646</v>
       </c>
       <c r="Q2" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R2" t="n">
-        <v>110.3601010412646</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S2" t="n">
-        <v>110.3601010412646</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="T2" t="n">
-        <v>110.3601010412646</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="U2" t="n">
-        <v>110.3601010412646</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="V2" t="n">
-        <v>110.3601010412646</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="W2" t="n">
-        <v>110.3601010412646</v>
+        <v>24.6100133913773</v>
       </c>
       <c r="X2" t="n">
-        <v>110.3601010412646</v>
+        <v>24.6100133913773</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.3601010412646</v>
+        <v>24.6100133913773</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>54.62267627294912</v>
+      </c>
+      <c r="C3" t="n">
+        <v>54.62267627294912</v>
+      </c>
+      <c r="D3" t="n">
         <v>26.7539638887914</v>
       </c>
-      <c r="C3" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.207202020825291</v>
-      </c>
       <c r="E3" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F3" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G3" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="H3" t="n">
         <v>2.207202020825291</v>
@@ -4410,16 +4410,16 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K3" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L3" t="n">
-        <v>55.73185102583861</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M3" t="n">
-        <v>55.73185102583861</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N3" t="n">
-        <v>55.73185102583861</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O3" t="n">
         <v>83.04597603355158</v>
@@ -4440,16 +4440,16 @@
         <v>110.3601010412646</v>
       </c>
       <c r="U3" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V3" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W3" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X3" t="n">
-        <v>82.49138865710684</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y3" t="n">
         <v>54.62267627294912</v>
@@ -4504,25 +4504,25 @@
         <v>108.4888536788635</v>
       </c>
       <c r="P4" t="n">
-        <v>105.7399236434024</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.87121125924466</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="R4" t="n">
-        <v>50.00249887508694</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="S4" t="n">
+        <v>80.62014129470579</v>
+      </c>
+      <c r="T4" t="n">
+        <v>80.62014129470579</v>
+      </c>
+      <c r="U4" t="n">
+        <v>57.94462678914073</v>
+      </c>
+      <c r="V4" t="n">
         <v>30.07591440498301</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.207202020825291</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.207202020825291</v>
       </c>
       <c r="W4" t="n">
         <v>2.207202020825291</v>
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.39977328887976</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C5" t="n">
-        <v>72.39977328887976</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D5" t="n">
-        <v>72.39977328887976</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E5" t="n">
-        <v>70.01461603622408</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="F5" t="n">
-        <v>42.14590365206637</v>
+        <v>29.73450188925718</v>
       </c>
       <c r="G5" t="n">
         <v>14.27719126790864</v>
@@ -4586,31 +4586,31 @@
         <v>110.3601010412646</v>
       </c>
       <c r="Q5" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R5" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S5" t="n">
-        <v>72.39977328887976</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T5" t="n">
-        <v>72.39977328887976</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U5" t="n">
-        <v>72.39977328887976</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V5" t="n">
-        <v>72.39977328887976</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W5" t="n">
-        <v>72.39977328887976</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X5" t="n">
-        <v>72.39977328887976</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y5" t="n">
-        <v>72.39977328887976</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82.49138865710684</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C6" t="n">
-        <v>82.49138865710684</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D6" t="n">
-        <v>58.69875944192644</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E6" t="n">
-        <v>30.83004705776872</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F6" t="n">
-        <v>30.83004705776872</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G6" t="n">
-        <v>2.961334673611005</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H6" t="n">
-        <v>2.961334673611005</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I6" t="n">
-        <v>2.961334673611005</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J6" t="n">
         <v>2.207202020825291</v>
@@ -4650,13 +4650,13 @@
         <v>29.52132702853827</v>
       </c>
       <c r="L6" t="n">
-        <v>29.52132702853827</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M6" t="n">
-        <v>55.73185102583861</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N6" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O6" t="n">
         <v>110.3601010412646</v>
@@ -4668,7 +4668,7 @@
         <v>110.3601010412646</v>
       </c>
       <c r="R6" t="n">
-        <v>82.49138865710684</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S6" t="n">
         <v>82.49138865710684</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.4888536788635</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="C7" t="n">
-        <v>85.81333917329844</v>
+        <v>52.57035059274347</v>
       </c>
       <c r="D7" t="n">
-        <v>57.94462678914073</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="E7" t="n">
-        <v>30.07591440498301</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="F7" t="n">
-        <v>2.207202020825291</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="G7" t="n">
-        <v>2.207202020825291</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="H7" t="n">
-        <v>2.207202020825291</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="I7" t="n">
-        <v>2.207202020825291</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="J7" t="n">
-        <v>2.207202020825291</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="K7" t="n">
         <v>2.207202020825291</v>
@@ -4762,13 +4762,13 @@
         <v>108.4888536788635</v>
       </c>
       <c r="W7" t="n">
-        <v>108.4888536788635</v>
+        <v>108.3077753610589</v>
       </c>
       <c r="X7" t="n">
-        <v>108.4888536788635</v>
+        <v>80.43906297690118</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.4888536788635</v>
+        <v>52.57035059274347</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.74240062808904</v>
+        <v>38.38213375405849</v>
       </c>
       <c r="C8" t="n">
-        <v>87.74240062808904</v>
+        <v>38.38213375405849</v>
       </c>
       <c r="D8" t="n">
-        <v>87.74240062808904</v>
+        <v>38.38213375405849</v>
       </c>
       <c r="E8" t="n">
-        <v>38.38213375405857</v>
+        <v>38.38213375405849</v>
       </c>
       <c r="F8" t="n">
-        <v>31.4366330048551</v>
+        <v>31.43663300485501</v>
       </c>
       <c r="G8" t="n">
-        <v>15.97932238350657</v>
+        <v>15.97932238350647</v>
       </c>
       <c r="H8" t="n">
-        <v>15.97932238350657</v>
+        <v>15.97932238350647</v>
       </c>
       <c r="I8" t="n">
-        <v>15.97932238350657</v>
+        <v>15.97932238350647</v>
       </c>
       <c r="J8" t="n">
-        <v>3.909333136423213</v>
+        <v>3.909333136423122</v>
       </c>
       <c r="K8" t="n">
-        <v>3.909333136423213</v>
+        <v>3.909333136423122</v>
       </c>
       <c r="L8" t="n">
-        <v>52.28733069966047</v>
+        <v>52.28733069965926</v>
       </c>
       <c r="M8" t="n">
-        <v>100.6653282628977</v>
+        <v>100.6653282628954</v>
       </c>
       <c r="N8" t="n">
-        <v>149.043325826135</v>
+        <v>149.0433258261315</v>
       </c>
       <c r="O8" t="n">
-        <v>195.4666568211607</v>
+        <v>195.4666568211561</v>
       </c>
       <c r="P8" t="n">
-        <v>195.4666568211607</v>
+        <v>195.4666568211561</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.3750414529336</v>
+        <v>185.375041452929</v>
       </c>
       <c r="R8" t="n">
-        <v>137.1026675021195</v>
+        <v>185.375041452929</v>
       </c>
       <c r="S8" t="n">
-        <v>137.1026675021195</v>
+        <v>136.0147745788997</v>
       </c>
       <c r="T8" t="n">
-        <v>137.1026675021195</v>
+        <v>86.65450770487038</v>
       </c>
       <c r="U8" t="n">
-        <v>87.74240062808904</v>
+        <v>86.65450770487038</v>
       </c>
       <c r="V8" t="n">
-        <v>87.74240062808904</v>
+        <v>86.65450770487038</v>
       </c>
       <c r="W8" t="n">
-        <v>87.74240062808904</v>
+        <v>86.65450770487038</v>
       </c>
       <c r="X8" t="n">
-        <v>87.74240062808904</v>
+        <v>86.65450770487038</v>
       </c>
       <c r="Y8" t="n">
-        <v>87.74240062808904</v>
+        <v>38.38213375405849</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.663465789208927</v>
+        <v>102.6298668844818</v>
       </c>
       <c r="C9" t="n">
-        <v>4.663465789208927</v>
+        <v>53.26960001045244</v>
       </c>
       <c r="D9" t="n">
-        <v>4.663465789208927</v>
+        <v>53.26960001045244</v>
       </c>
       <c r="E9" t="n">
-        <v>4.663465789208927</v>
+        <v>3.909333136423122</v>
       </c>
       <c r="F9" t="n">
-        <v>4.663465789208927</v>
+        <v>3.909333136423122</v>
       </c>
       <c r="G9" t="n">
-        <v>4.663465789208927</v>
+        <v>3.909333136423122</v>
       </c>
       <c r="H9" t="n">
-        <v>4.663465789208927</v>
+        <v>3.909333136423122</v>
       </c>
       <c r="I9" t="n">
-        <v>4.663465789208927</v>
+        <v>3.909333136423122</v>
       </c>
       <c r="J9" t="n">
-        <v>3.909333136423213</v>
+        <v>3.909333136423122</v>
       </c>
       <c r="K9" t="n">
-        <v>3.909333136423213</v>
+        <v>3.909333136423122</v>
       </c>
       <c r="L9" t="n">
-        <v>52.28733069966047</v>
+        <v>3.909333136423122</v>
       </c>
       <c r="M9" t="n">
-        <v>100.6653282628977</v>
+        <v>52.28733069965926</v>
       </c>
       <c r="N9" t="n">
-        <v>149.043325826135</v>
+        <v>98.71066169468384</v>
       </c>
       <c r="O9" t="n">
-        <v>195.4666568211607</v>
+        <v>147.08865925792</v>
       </c>
       <c r="P9" t="n">
-        <v>195.4666568211607</v>
+        <v>147.08865925792</v>
       </c>
       <c r="Q9" t="n">
-        <v>195.4666568211607</v>
+        <v>195.4666568211561</v>
       </c>
       <c r="R9" t="n">
-        <v>195.4666568211607</v>
+        <v>151.9901337585111</v>
       </c>
       <c r="S9" t="n">
-        <v>195.4666568211607</v>
+        <v>151.9901337585111</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4666568211607</v>
+        <v>151.9901337585111</v>
       </c>
       <c r="U9" t="n">
-        <v>152.7442664113003</v>
+        <v>151.9901337585111</v>
       </c>
       <c r="V9" t="n">
-        <v>152.7442664113003</v>
+        <v>151.9901337585111</v>
       </c>
       <c r="W9" t="n">
-        <v>103.3839995372699</v>
+        <v>151.9901337585111</v>
       </c>
       <c r="X9" t="n">
-        <v>54.0237326632394</v>
+        <v>151.9901337585111</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.663465789208927</v>
+        <v>151.9901337585111</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.97215984317191</v>
+        <v>89.08135675266453</v>
       </c>
       <c r="C10" t="n">
-        <v>36.97215984317191</v>
+        <v>89.08135675266453</v>
       </c>
       <c r="D10" t="n">
-        <v>36.97215984317191</v>
+        <v>89.08135675266453</v>
       </c>
       <c r="E10" t="n">
-        <v>36.97215984317191</v>
+        <v>53.26960001045244</v>
       </c>
       <c r="F10" t="n">
-        <v>36.97215984317191</v>
+        <v>3.909333136423122</v>
       </c>
       <c r="G10" t="n">
-        <v>26.40376932418367</v>
+        <v>3.909333136423122</v>
       </c>
       <c r="H10" t="n">
-        <v>26.40376932418367</v>
+        <v>3.909333136423122</v>
       </c>
       <c r="I10" t="n">
-        <v>26.40376932418367</v>
+        <v>3.909333136423122</v>
       </c>
       <c r="J10" t="n">
-        <v>26.40376932418367</v>
+        <v>3.909333136423122</v>
       </c>
       <c r="K10" t="n">
-        <v>3.909333136423213</v>
+        <v>3.909333136423122</v>
       </c>
       <c r="L10" t="n">
-        <v>31.22345814413619</v>
+        <v>31.2234581441361</v>
       </c>
       <c r="M10" t="n">
-        <v>70.41149633635837</v>
+        <v>70.41149633635828</v>
       </c>
       <c r="N10" t="n">
-        <v>114.1023469917947</v>
+        <v>114.1023469917946</v>
       </c>
       <c r="O10" t="n">
-        <v>138.441623626694</v>
+        <v>138.4416236266939</v>
       </c>
       <c r="P10" t="n">
-        <v>135.6926935912329</v>
+        <v>138.4416236266939</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.33242671720238</v>
+        <v>138.4416236266939</v>
       </c>
       <c r="R10" t="n">
-        <v>86.33242671720238</v>
+        <v>138.4416236266939</v>
       </c>
       <c r="S10" t="n">
-        <v>86.33242671720238</v>
+        <v>138.4416236266939</v>
       </c>
       <c r="T10" t="n">
-        <v>86.33242671720238</v>
+        <v>138.4416236266939</v>
       </c>
       <c r="U10" t="n">
-        <v>86.33242671720238</v>
+        <v>138.4416236266939</v>
       </c>
       <c r="V10" t="n">
-        <v>86.33242671720238</v>
+        <v>89.08135675266453</v>
       </c>
       <c r="W10" t="n">
-        <v>86.33242671720238</v>
+        <v>89.08135675266453</v>
       </c>
       <c r="X10" t="n">
-        <v>86.33242671720238</v>
+        <v>89.08135675266453</v>
       </c>
       <c r="Y10" t="n">
-        <v>36.97215984317191</v>
+        <v>89.08135675266453</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1592.107689274996</v>
+        <v>1935.872554024044</v>
       </c>
       <c r="C11" t="n">
-        <v>1592.107689274996</v>
+        <v>1566.910037083632</v>
       </c>
       <c r="D11" t="n">
-        <v>1233.841990668245</v>
+        <v>1208.644338476882</v>
       </c>
       <c r="E11" t="n">
-        <v>1233.841990668245</v>
+        <v>822.8560858786378</v>
       </c>
       <c r="F11" t="n">
-        <v>822.8560858786376</v>
+        <v>822.8560858786378</v>
       </c>
       <c r="G11" t="n">
-        <v>407.71771212682</v>
+        <v>407.7177121268202</v>
       </c>
       <c r="H11" t="n">
         <v>109.4589716997149</v>
       </c>
       <c r="I11" t="n">
-        <v>64.92055347300769</v>
+        <v>64.9205534730077</v>
       </c>
       <c r="J11" t="n">
-        <v>248.315845696146</v>
+        <v>248.3158456961464</v>
       </c>
       <c r="K11" t="n">
-        <v>573.9163666594418</v>
+        <v>573.9163666594425</v>
       </c>
       <c r="L11" t="n">
         <v>1014.754366339893</v>
@@ -5051,40 +5051,40 @@
         <v>1536.941018817437</v>
       </c>
       <c r="N11" t="n">
-        <v>2072.191005640237</v>
+        <v>2072.191005640238</v>
       </c>
       <c r="O11" t="n">
-        <v>2564.277129046873</v>
+        <v>2564.277129046874</v>
       </c>
       <c r="P11" t="n">
-        <v>2949.760249700651</v>
+        <v>2949.760249700652</v>
       </c>
       <c r="Q11" t="n">
-        <v>3191.069272876502</v>
+        <v>3191.069272876503</v>
       </c>
       <c r="R11" t="n">
-        <v>3246.027673650384</v>
+        <v>3246.027673650385</v>
       </c>
       <c r="S11" t="n">
         <v>3134.234771215078</v>
       </c>
       <c r="T11" t="n">
-        <v>2927.968443054246</v>
+        <v>2927.968443054247</v>
       </c>
       <c r="U11" t="n">
-        <v>2742.312619576009</v>
+        <v>2674.432692440338</v>
       </c>
       <c r="V11" t="n">
-        <v>2742.312619576009</v>
+        <v>2674.432692440338</v>
       </c>
       <c r="W11" t="n">
-        <v>2742.312619576009</v>
+        <v>2674.432692440338</v>
       </c>
       <c r="X11" t="n">
-        <v>2368.846861314929</v>
+        <v>2674.432692440338</v>
       </c>
       <c r="Y11" t="n">
-        <v>1978.707529339117</v>
+        <v>2284.293360464526</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>165.7567843579579</v>
       </c>
       <c r="H12" t="n">
-        <v>74.91423447369394</v>
+        <v>74.91423447369395</v>
       </c>
       <c r="I12" t="n">
-        <v>64.92055347300769</v>
+        <v>64.9205534730077</v>
       </c>
       <c r="J12" t="n">
-        <v>200.6938844878156</v>
+        <v>155.3316861805871</v>
       </c>
       <c r="K12" t="n">
-        <v>433.3757354833381</v>
+        <v>388.0135371761096</v>
       </c>
       <c r="L12" t="n">
-        <v>792.5677400258771</v>
+        <v>747.2055417186486</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.084735506951</v>
+        <v>1185.722537199722</v>
       </c>
       <c r="N12" t="n">
-        <v>1695.616615926111</v>
+        <v>1650.254417618883</v>
       </c>
       <c r="O12" t="n">
-        <v>2098.352737641671</v>
+        <v>2052.990539334442</v>
       </c>
       <c r="P12" t="n">
-        <v>2402.250914918808</v>
+        <v>2356.88871661158</v>
       </c>
       <c r="Q12" t="n">
         <v>2555.479601996097</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>461.165245952546</v>
+        <v>233.8567364009146</v>
       </c>
       <c r="C13" t="n">
-        <v>461.165245952546</v>
+        <v>64.9205534730077</v>
       </c>
       <c r="D13" t="n">
-        <v>311.0486065402102</v>
+        <v>64.9205534730077</v>
       </c>
       <c r="E13" t="n">
-        <v>163.1355129578171</v>
+        <v>64.9205534730077</v>
       </c>
       <c r="F13" t="n">
-        <v>163.1355129578171</v>
+        <v>64.9205534730077</v>
       </c>
       <c r="G13" t="n">
-        <v>163.1355129578171</v>
+        <v>64.9205534730077</v>
       </c>
       <c r="H13" t="n">
-        <v>163.1355129578171</v>
+        <v>64.9205534730077</v>
       </c>
       <c r="I13" t="n">
-        <v>64.92055347300769</v>
+        <v>64.9205534730077</v>
       </c>
       <c r="J13" t="n">
-        <v>107.9941166644871</v>
+        <v>107.994116664487</v>
       </c>
       <c r="K13" t="n">
-        <v>308.6140493774459</v>
+        <v>308.6140493774458</v>
       </c>
       <c r="L13" t="n">
-        <v>620.8649268276481</v>
+        <v>620.8649268276482</v>
       </c>
       <c r="M13" t="n">
-        <v>960.4788193898008</v>
+        <v>960.4788193898009</v>
       </c>
       <c r="N13" t="n">
         <v>1297.452069083052</v>
@@ -5221,28 +5221,28 @@
         <v>1896.970697318143</v>
       </c>
       <c r="R13" t="n">
-        <v>1857.277773359326</v>
+        <v>1805.810617865452</v>
       </c>
       <c r="S13" t="n">
-        <v>1857.277773359326</v>
+        <v>1737.737969014415</v>
       </c>
       <c r="T13" t="n">
-        <v>1635.384808871269</v>
+        <v>1515.845004526358</v>
       </c>
       <c r="U13" t="n">
-        <v>1346.28032903022</v>
+        <v>1226.74052468531</v>
       </c>
       <c r="V13" t="n">
-        <v>1091.595840824333</v>
+        <v>972.0560364794227</v>
       </c>
       <c r="W13" t="n">
-        <v>1091.595840824333</v>
+        <v>682.6388664424621</v>
       </c>
       <c r="X13" t="n">
-        <v>863.6062899263159</v>
+        <v>454.6493155444447</v>
       </c>
       <c r="Y13" t="n">
-        <v>642.8137107827857</v>
+        <v>233.8567364009146</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2360.438377781398</v>
+        <v>1973.838537717273</v>
       </c>
       <c r="C14" t="n">
-        <v>1991.475860840986</v>
+        <v>1973.838537717273</v>
       </c>
       <c r="D14" t="n">
-        <v>1633.210162234236</v>
+        <v>1637.228374618044</v>
       </c>
       <c r="E14" t="n">
-        <v>1247.421909635991</v>
+        <v>1251.4401220198</v>
       </c>
       <c r="F14" t="n">
-        <v>836.4360048463839</v>
+        <v>840.4542172301922</v>
       </c>
       <c r="G14" t="n">
-        <v>425.3158434783746</v>
+        <v>425.3158434783745</v>
       </c>
       <c r="H14" t="n">
-        <v>127.0571030512694</v>
+        <v>127.0571030512693</v>
       </c>
       <c r="I14" t="n">
-        <v>82.51868482456224</v>
+        <v>82.51868482456217</v>
       </c>
       <c r="J14" t="n">
         <v>265.9139770477008</v>
       </c>
       <c r="K14" t="n">
-        <v>912.4184564564498</v>
+        <v>912.4184564564497</v>
       </c>
       <c r="L14" t="n">
-        <v>1576.080212827853</v>
+        <v>1576.080212827849</v>
       </c>
       <c r="M14" t="n">
-        <v>2098.266865305397</v>
+        <v>2098.266865305393</v>
       </c>
       <c r="N14" t="n">
-        <v>2633.516852128198</v>
+        <v>2633.516852128194</v>
       </c>
       <c r="O14" t="n">
-        <v>3125.602975534834</v>
+        <v>3125.60297553483</v>
       </c>
       <c r="P14" t="n">
-        <v>3829.66681727838</v>
+        <v>3829.666817278376</v>
       </c>
       <c r="Q14" t="n">
-        <v>4070.97584045423</v>
+        <v>4070.975840454227</v>
       </c>
       <c r="R14" t="n">
-        <v>4125.934241228112</v>
+        <v>4125.934241228108</v>
       </c>
       <c r="S14" t="n">
-        <v>4014.141338792806</v>
+        <v>4014.141338792802</v>
       </c>
       <c r="T14" t="n">
-        <v>3807.875010631974</v>
+        <v>3807.875010631971</v>
       </c>
       <c r="U14" t="n">
-        <v>3807.875010631974</v>
+        <v>3807.875010631971</v>
       </c>
       <c r="V14" t="n">
-        <v>3476.812123288404</v>
+        <v>3476.8121232884</v>
       </c>
       <c r="W14" t="n">
-        <v>3124.043468018289</v>
+        <v>3124.043468018286</v>
       </c>
       <c r="X14" t="n">
-        <v>2750.57770975721</v>
+        <v>2750.577709757206</v>
       </c>
       <c r="Y14" t="n">
-        <v>2360.438377781398</v>
+        <v>2360.438377781395</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>948.9127400317424</v>
+        <v>948.9127400317421</v>
       </c>
       <c r="C15" t="n">
-        <v>774.4597107506154</v>
+        <v>774.4597107506152</v>
       </c>
       <c r="D15" t="n">
-        <v>625.5253010893641</v>
+        <v>625.5253010893639</v>
       </c>
       <c r="E15" t="n">
-        <v>466.2878460839086</v>
+        <v>466.2878460839084</v>
       </c>
       <c r="F15" t="n">
-        <v>319.7532881107935</v>
+        <v>319.7532881107934</v>
       </c>
       <c r="G15" t="n">
-        <v>183.3549157095125</v>
+        <v>183.3549157095124</v>
       </c>
       <c r="H15" t="n">
-        <v>92.51236582524849</v>
+        <v>92.51236582524842</v>
       </c>
       <c r="I15" t="n">
-        <v>82.51868482456224</v>
+        <v>82.51868482456217</v>
       </c>
       <c r="J15" t="n">
         <v>218.2920158393705</v>
@@ -5391,7 +5391,7 @@
         <v>2022.129340982241</v>
       </c>
       <c r="V15" t="n">
-        <v>1786.977232750499</v>
+        <v>1786.977232750498</v>
       </c>
       <c r="W15" t="n">
         <v>1532.739876022297</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>939.8658328363484</v>
+        <v>82.51868482456217</v>
       </c>
       <c r="C16" t="n">
-        <v>939.8658328363484</v>
+        <v>82.51868482456217</v>
       </c>
       <c r="D16" t="n">
-        <v>789.7491934240127</v>
+        <v>82.51868482456217</v>
       </c>
       <c r="E16" t="n">
-        <v>641.8360998416196</v>
+        <v>82.51868482456217</v>
       </c>
       <c r="F16" t="n">
-        <v>494.9461523437092</v>
+        <v>82.51868482456217</v>
       </c>
       <c r="G16" t="n">
-        <v>327.2137446623982</v>
+        <v>82.51868482456217</v>
       </c>
       <c r="H16" t="n">
-        <v>180.7336443093716</v>
+        <v>82.51868482456217</v>
       </c>
       <c r="I16" t="n">
-        <v>82.51868482456224</v>
+        <v>82.51868482456217</v>
       </c>
       <c r="J16" t="n">
-        <v>125.5922480160416</v>
+        <v>125.5922480160415</v>
       </c>
       <c r="K16" t="n">
-        <v>326.2121807290004</v>
+        <v>326.2121807290003</v>
       </c>
       <c r="L16" t="n">
-        <v>638.4630581792028</v>
+        <v>638.4630581792027</v>
       </c>
       <c r="M16" t="n">
         <v>978.0769507413554</v>
@@ -5464,22 +5464,22 @@
         <v>1722.367601638257</v>
       </c>
       <c r="T16" t="n">
-        <v>1722.367601638257</v>
+        <v>1500.4746371502</v>
       </c>
       <c r="U16" t="n">
-        <v>1722.367601638257</v>
+        <v>1211.370157309151</v>
       </c>
       <c r="V16" t="n">
-        <v>1631.724046847078</v>
+        <v>956.6856691032646</v>
       </c>
       <c r="W16" t="n">
-        <v>1342.306876810118</v>
+        <v>667.268499066304</v>
       </c>
       <c r="X16" t="n">
-        <v>1342.306876810118</v>
+        <v>439.2789481682867</v>
       </c>
       <c r="Y16" t="n">
-        <v>1121.514297666588</v>
+        <v>218.4863690247562</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2063.851482069682</v>
+        <v>2063.851482069681</v>
       </c>
       <c r="C17" t="n">
-        <v>1737.832552000059</v>
+        <v>1737.832552000058</v>
       </c>
       <c r="D17" t="n">
-        <v>1422.510440264098</v>
+        <v>1422.510440264097</v>
       </c>
       <c r="E17" t="n">
-        <v>1079.665774536643</v>
+        <v>1079.665774536642</v>
       </c>
       <c r="F17" t="n">
-        <v>711.623456617825</v>
+        <v>711.6234566178242</v>
       </c>
       <c r="G17" t="n">
-        <v>339.4286697367966</v>
+        <v>339.4286697367961</v>
       </c>
       <c r="H17" t="n">
-        <v>84.11351618048013</v>
+        <v>84.11351618047982</v>
       </c>
       <c r="I17" t="n">
-        <v>82.51868482456224</v>
+        <v>82.51868482456217</v>
       </c>
       <c r="J17" t="n">
-        <v>265.9139770477008</v>
+        <v>433.3196260680538</v>
       </c>
       <c r="K17" t="n">
-        <v>591.5144980109967</v>
+        <v>1079.824105476803</v>
       </c>
       <c r="L17" t="n">
-        <v>1032.352497691448</v>
+        <v>1520.662105157254</v>
       </c>
       <c r="M17" t="n">
-        <v>1983.874131227301</v>
+        <v>2042.848757634797</v>
       </c>
       <c r="N17" t="n">
-        <v>2952.097573217966</v>
+        <v>2578.098744457599</v>
       </c>
       <c r="O17" t="n">
-        <v>3444.183696624602</v>
+        <v>3070.184867864235</v>
       </c>
       <c r="P17" t="n">
-        <v>3829.66681727838</v>
+        <v>3774.24870960778</v>
       </c>
       <c r="Q17" t="n">
-        <v>4070.97584045423</v>
+        <v>4070.975840454227</v>
       </c>
       <c r="R17" t="n">
-        <v>4125.934241228112</v>
+        <v>4125.934241228108</v>
       </c>
       <c r="S17" t="n">
-        <v>4057.084925663595</v>
+        <v>4057.084925663592</v>
       </c>
       <c r="T17" t="n">
-        <v>3893.762184373553</v>
+        <v>3893.76218437355</v>
       </c>
       <c r="U17" t="n">
-        <v>3683.170020630434</v>
+        <v>3683.170020630431</v>
       </c>
       <c r="V17" t="n">
-        <v>3395.050720157652</v>
+        <v>3395.05072015765</v>
       </c>
       <c r="W17" t="n">
-        <v>3085.225651758327</v>
+        <v>3085.225651758326</v>
       </c>
       <c r="X17" t="n">
-        <v>2754.703480368037</v>
+        <v>2754.703480368035</v>
       </c>
       <c r="Y17" t="n">
-        <v>2407.507735263014</v>
+        <v>2407.507735263013</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>948.9127400317424</v>
+        <v>948.9127400317421</v>
       </c>
       <c r="C18" t="n">
-        <v>774.4597107506154</v>
+        <v>774.4597107506152</v>
       </c>
       <c r="D18" t="n">
-        <v>625.5253010893641</v>
+        <v>625.5253010893639</v>
       </c>
       <c r="E18" t="n">
-        <v>466.2878460839086</v>
+        <v>466.2878460839084</v>
       </c>
       <c r="F18" t="n">
-        <v>319.7532881107935</v>
+        <v>319.7532881107934</v>
       </c>
       <c r="G18" t="n">
-        <v>183.3549157095125</v>
+        <v>183.3549157095124</v>
       </c>
       <c r="H18" t="n">
-        <v>92.51236582524849</v>
+        <v>92.51236582524842</v>
       </c>
       <c r="I18" t="n">
-        <v>82.51868482456224</v>
+        <v>82.51868482456217</v>
       </c>
       <c r="J18" t="n">
         <v>218.2920158393705</v>
@@ -5628,7 +5628,7 @@
         <v>2022.129340982241</v>
       </c>
       <c r="V18" t="n">
-        <v>1786.977232750499</v>
+        <v>1786.977232750498</v>
       </c>
       <c r="W18" t="n">
         <v>1532.739876022297</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>704.6603941864934</v>
+        <v>668.8821825154175</v>
       </c>
       <c r="C19" t="n">
-        <v>578.6677981293757</v>
+        <v>542.8895864583001</v>
       </c>
       <c r="D19" t="n">
-        <v>471.4947455878292</v>
+        <v>435.7165339167541</v>
       </c>
       <c r="E19" t="n">
-        <v>366.5252388762253</v>
+        <v>330.7470272051505</v>
       </c>
       <c r="F19" t="n">
-        <v>262.5788782491043</v>
+        <v>226.8006665780287</v>
       </c>
       <c r="G19" t="n">
-        <v>137.7900574385824</v>
+        <v>226.8006665780287</v>
       </c>
       <c r="H19" t="n">
-        <v>137.7900574385824</v>
+        <v>123.2641530957916</v>
       </c>
       <c r="I19" t="n">
-        <v>82.51868482456224</v>
+        <v>82.51868482456217</v>
       </c>
       <c r="J19" t="n">
-        <v>167.6812575081021</v>
+        <v>167.6812575081023</v>
       </c>
       <c r="K19" t="n">
-        <v>410.3901997131215</v>
+        <v>410.390199713122</v>
       </c>
       <c r="L19" t="n">
-        <v>764.7300866553846</v>
+        <v>764.7300866553851</v>
       </c>
       <c r="M19" t="n">
-        <v>1146.432988709598</v>
+        <v>1146.432988709599</v>
       </c>
       <c r="N19" t="n">
-        <v>1525.49524789491</v>
+        <v>1525.495247894911</v>
       </c>
       <c r="O19" t="n">
-        <v>1862.817298665127</v>
+        <v>1862.817298665128</v>
       </c>
       <c r="P19" t="n">
-        <v>2134.008495825694</v>
+        <v>2134.008495825696</v>
       </c>
       <c r="Q19" t="n">
-        <v>2251.280904606182</v>
+        <v>2251.280904606184</v>
       </c>
       <c r="R19" t="n">
-        <v>2238.84262369536</v>
+        <v>2203.064412024283</v>
       </c>
       <c r="S19" t="n">
-        <v>2089.584983534708</v>
+        <v>2053.806771863631</v>
       </c>
       <c r="T19" t="n">
-        <v>1910.635605917442</v>
+        <v>1874.857394246364</v>
       </c>
       <c r="U19" t="n">
-        <v>1664.474712947182</v>
+        <v>1628.696501276105</v>
       </c>
       <c r="V19" t="n">
-        <v>1452.733811612084</v>
+        <v>1416.955599941007</v>
       </c>
       <c r="W19" t="n">
-        <v>1206.260228445913</v>
+        <v>1170.482016774836</v>
       </c>
       <c r="X19" t="n">
-        <v>1021.214264418685</v>
+        <v>985.4360527476083</v>
       </c>
       <c r="Y19" t="n">
-        <v>843.3652721459438</v>
+        <v>807.5870604748677</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2063.851482069681</v>
+        <v>2063.85148206968</v>
       </c>
       <c r="C20" t="n">
-        <v>1737.832552000059</v>
+        <v>1737.832552000058</v>
       </c>
       <c r="D20" t="n">
-        <v>1422.510440264098</v>
+        <v>1422.510440264097</v>
       </c>
       <c r="E20" t="n">
-        <v>1079.665774536643</v>
+        <v>1079.665774536642</v>
       </c>
       <c r="F20" t="n">
-        <v>711.6234566178246</v>
+        <v>711.6234566178239</v>
       </c>
       <c r="G20" t="n">
-        <v>339.4286697367961</v>
+        <v>339.4286697367954</v>
       </c>
       <c r="H20" t="n">
-        <v>84.11351618048013</v>
+        <v>84.11351618047979</v>
       </c>
       <c r="I20" t="n">
-        <v>82.51868482456224</v>
+        <v>82.51868482456217</v>
       </c>
       <c r="J20" t="n">
         <v>265.9139770477008</v>
       </c>
       <c r="K20" t="n">
-        <v>591.5144980109967</v>
+        <v>912.4184564564497</v>
       </c>
       <c r="L20" t="n">
-        <v>1251.495637996451</v>
+        <v>1353.2564561369</v>
       </c>
       <c r="M20" t="n">
-        <v>1773.682290473996</v>
+        <v>1875.443108614445</v>
       </c>
       <c r="N20" t="n">
-        <v>2741.905732464661</v>
+        <v>2410.693095437246</v>
       </c>
       <c r="O20" t="n">
-        <v>3233.991855871297</v>
+        <v>3279.771398293999</v>
       </c>
       <c r="P20" t="n">
-        <v>3619.474976525074</v>
+        <v>3829.666817278376</v>
       </c>
       <c r="Q20" t="n">
-        <v>4070.97584045423</v>
+        <v>4070.975840454227</v>
       </c>
       <c r="R20" t="n">
-        <v>4125.934241228112</v>
+        <v>4125.934241228108</v>
       </c>
       <c r="S20" t="n">
-        <v>4057.084925663595</v>
+        <v>4057.084925663592</v>
       </c>
       <c r="T20" t="n">
-        <v>3893.762184373552</v>
+        <v>3893.762184373549</v>
       </c>
       <c r="U20" t="n">
-        <v>3683.170020630434</v>
+        <v>3683.17002063043</v>
       </c>
       <c r="V20" t="n">
-        <v>3395.050720157652</v>
+        <v>3395.050720157649</v>
       </c>
       <c r="W20" t="n">
-        <v>3085.225651758327</v>
+        <v>3085.225651758325</v>
       </c>
       <c r="X20" t="n">
-        <v>2754.703480368036</v>
+        <v>2754.703480368034</v>
       </c>
       <c r="Y20" t="n">
-        <v>2407.507735263014</v>
+        <v>2407.507735263012</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>948.9127400317424</v>
+        <v>948.9127400317421</v>
       </c>
       <c r="C21" t="n">
-        <v>774.4597107506154</v>
+        <v>774.4597107506152</v>
       </c>
       <c r="D21" t="n">
-        <v>625.5253010893641</v>
+        <v>625.5253010893639</v>
       </c>
       <c r="E21" t="n">
-        <v>466.2878460839086</v>
+        <v>466.2878460839084</v>
       </c>
       <c r="F21" t="n">
-        <v>319.7532881107935</v>
+        <v>319.7532881107934</v>
       </c>
       <c r="G21" t="n">
-        <v>183.3549157095125</v>
+        <v>183.3549157095124</v>
       </c>
       <c r="H21" t="n">
-        <v>92.51236582524849</v>
+        <v>92.51236582524842</v>
       </c>
       <c r="I21" t="n">
-        <v>82.51868482456224</v>
+        <v>82.51868482456217</v>
       </c>
       <c r="J21" t="n">
         <v>218.2920158393705</v>
@@ -5865,7 +5865,7 @@
         <v>2022.129340982241</v>
       </c>
       <c r="V21" t="n">
-        <v>1786.977232750499</v>
+        <v>1786.977232750498</v>
       </c>
       <c r="W21" t="n">
         <v>1532.739876022297</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>668.8821825154135</v>
+        <v>704.2505470416075</v>
       </c>
       <c r="C22" t="n">
-        <v>542.8895864582959</v>
+        <v>578.2579509844902</v>
       </c>
       <c r="D22" t="n">
-        <v>435.7165339167494</v>
+        <v>471.084898442944</v>
       </c>
       <c r="E22" t="n">
-        <v>330.7470272051455</v>
+        <v>366.1153917313404</v>
       </c>
       <c r="F22" t="n">
-        <v>226.8006665780244</v>
+        <v>366.1153917313404</v>
       </c>
       <c r="G22" t="n">
-        <v>226.8006665780244</v>
+        <v>241.326570920819</v>
       </c>
       <c r="H22" t="n">
-        <v>137.7900574385824</v>
+        <v>137.790057438582</v>
       </c>
       <c r="I22" t="n">
-        <v>82.51868482456224</v>
+        <v>82.51868482456217</v>
       </c>
       <c r="J22" t="n">
-        <v>167.6812575081021</v>
+        <v>167.6812575081024</v>
       </c>
       <c r="K22" t="n">
-        <v>410.3901997131215</v>
+        <v>410.3901997131221</v>
       </c>
       <c r="L22" t="n">
-        <v>764.7300866553844</v>
+        <v>764.7300866553851</v>
       </c>
       <c r="M22" t="n">
-        <v>1146.432988709598</v>
+        <v>1146.432988709599</v>
       </c>
       <c r="N22" t="n">
-        <v>1525.495247894909</v>
+        <v>1525.495247894911</v>
       </c>
       <c r="O22" t="n">
-        <v>1862.817298665126</v>
+        <v>1862.817298665128</v>
       </c>
       <c r="P22" t="n">
-        <v>2134.008495825694</v>
+        <v>2134.008495825696</v>
       </c>
       <c r="Q22" t="n">
-        <v>2251.280904606182</v>
+        <v>2251.280904606184</v>
       </c>
       <c r="R22" t="n">
-        <v>2203.064412024281</v>
+        <v>2203.064412024282</v>
       </c>
       <c r="S22" t="n">
-        <v>2053.806771863629</v>
+        <v>2053.806771863631</v>
       </c>
       <c r="T22" t="n">
-        <v>1874.857394246362</v>
+        <v>1874.857394246364</v>
       </c>
       <c r="U22" t="n">
-        <v>1628.696501276102</v>
+        <v>1628.696501276105</v>
       </c>
       <c r="V22" t="n">
-        <v>1416.955599941004</v>
+        <v>1416.955599941008</v>
       </c>
       <c r="W22" t="n">
-        <v>1170.482016774833</v>
+        <v>1170.482016774837</v>
       </c>
       <c r="X22" t="n">
-        <v>985.4360527476048</v>
+        <v>985.4360527476091</v>
       </c>
       <c r="Y22" t="n">
-        <v>807.587060474864</v>
+        <v>807.5870604748678</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2063.851482069681</v>
+        <v>2063.851482069679</v>
       </c>
       <c r="C23" t="n">
-        <v>1737.832552000059</v>
+        <v>1737.832552000057</v>
       </c>
       <c r="D23" t="n">
-        <v>1422.510440264097</v>
+        <v>1422.510440264096</v>
       </c>
       <c r="E23" t="n">
-        <v>1079.665774536643</v>
+        <v>1079.665774536641</v>
       </c>
       <c r="F23" t="n">
-        <v>711.6234566178246</v>
+        <v>711.6234566178236</v>
       </c>
       <c r="G23" t="n">
-        <v>339.4286697367962</v>
+        <v>339.4286697367952</v>
       </c>
       <c r="H23" t="n">
-        <v>84.11351618048013</v>
+        <v>84.11351618047979</v>
       </c>
       <c r="I23" t="n">
-        <v>82.51868482456224</v>
+        <v>82.51868482456217</v>
       </c>
       <c r="J23" t="n">
         <v>265.9139770477008</v>
@@ -5996,43 +5996,43 @@
         <v>1032.352497691448</v>
       </c>
       <c r="M23" t="n">
-        <v>1983.874131227301</v>
+        <v>1554.539150168991</v>
       </c>
       <c r="N23" t="n">
-        <v>2952.097573217966</v>
+        <v>2089.789136991792</v>
       </c>
       <c r="O23" t="n">
-        <v>3444.183696624602</v>
+        <v>2915.411134781525</v>
       </c>
       <c r="P23" t="n">
-        <v>3829.66681727838</v>
+        <v>3619.474976525071</v>
       </c>
       <c r="Q23" t="n">
-        <v>4070.97584045423</v>
+        <v>4070.975840454227</v>
       </c>
       <c r="R23" t="n">
-        <v>4125.934241228112</v>
+        <v>4125.934241228108</v>
       </c>
       <c r="S23" t="n">
-        <v>4057.084925663595</v>
+        <v>4057.084925663592</v>
       </c>
       <c r="T23" t="n">
-        <v>3893.762184373553</v>
+        <v>3893.762184373549</v>
       </c>
       <c r="U23" t="n">
-        <v>3683.170020630434</v>
+        <v>3683.17002063043</v>
       </c>
       <c r="V23" t="n">
-        <v>3395.050720157652</v>
+        <v>3395.050720157649</v>
       </c>
       <c r="W23" t="n">
-        <v>3085.225651758327</v>
+        <v>3085.225651758324</v>
       </c>
       <c r="X23" t="n">
-        <v>2754.703480368036</v>
+        <v>2754.703480368034</v>
       </c>
       <c r="Y23" t="n">
-        <v>2407.507735263014</v>
+        <v>2407.507735263011</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.9127400317424</v>
+        <v>948.9127400317421</v>
       </c>
       <c r="C24" t="n">
-        <v>774.4597107506154</v>
+        <v>774.4597107506152</v>
       </c>
       <c r="D24" t="n">
-        <v>625.5253010893641</v>
+        <v>625.5253010893639</v>
       </c>
       <c r="E24" t="n">
-        <v>466.2878460839086</v>
+        <v>466.2878460839084</v>
       </c>
       <c r="F24" t="n">
-        <v>319.7532881107935</v>
+        <v>319.7532881107934</v>
       </c>
       <c r="G24" t="n">
-        <v>183.3549157095125</v>
+        <v>183.3549157095124</v>
       </c>
       <c r="H24" t="n">
-        <v>92.51236582524849</v>
+        <v>92.51236582524842</v>
       </c>
       <c r="I24" t="n">
-        <v>82.51868482456224</v>
+        <v>82.51868482456217</v>
       </c>
       <c r="J24" t="n">
         <v>218.2920158393705</v>
@@ -6102,7 +6102,7 @@
         <v>2022.129340982241</v>
       </c>
       <c r="V24" t="n">
-        <v>1786.977232750499</v>
+        <v>1786.977232750498</v>
       </c>
       <c r="W24" t="n">
         <v>1532.739876022297</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>668.8821825154135</v>
+        <v>704.6603941864914</v>
       </c>
       <c r="C25" t="n">
-        <v>575.0312590700663</v>
+        <v>578.6677981293741</v>
       </c>
       <c r="D25" t="n">
-        <v>575.0312590700663</v>
+        <v>471.4947455878279</v>
       </c>
       <c r="E25" t="n">
-        <v>470.0617523584625</v>
+        <v>366.5252388762243</v>
       </c>
       <c r="F25" t="n">
-        <v>366.1153917313414</v>
+        <v>262.5788782491035</v>
       </c>
       <c r="G25" t="n">
-        <v>241.3265709208197</v>
+        <v>137.790057438582</v>
       </c>
       <c r="H25" t="n">
-        <v>137.7900574385824</v>
+        <v>137.790057438582</v>
       </c>
       <c r="I25" t="n">
-        <v>82.51868482456224</v>
+        <v>82.51868482456217</v>
       </c>
       <c r="J25" t="n">
-        <v>167.6812575081022</v>
+        <v>167.6812575081024</v>
       </c>
       <c r="K25" t="n">
-        <v>410.3901997131215</v>
+        <v>410.3901997131221</v>
       </c>
       <c r="L25" t="n">
-        <v>764.7300866553844</v>
+        <v>764.7300866553852</v>
       </c>
       <c r="M25" t="n">
-        <v>1146.432988709598</v>
+        <v>1146.432988709599</v>
       </c>
       <c r="N25" t="n">
-        <v>1525.495247894909</v>
+        <v>1525.495247894911</v>
       </c>
       <c r="O25" t="n">
-        <v>1862.817298665126</v>
+        <v>1862.817298665128</v>
       </c>
       <c r="P25" t="n">
-        <v>2134.008495825694</v>
+        <v>2134.008495825696</v>
       </c>
       <c r="Q25" t="n">
-        <v>2251.280904606182</v>
+        <v>2251.280904606184</v>
       </c>
       <c r="R25" t="n">
-        <v>2203.064412024281</v>
+        <v>2203.064412024283</v>
       </c>
       <c r="S25" t="n">
-        <v>2053.806771863629</v>
+        <v>2053.806771863632</v>
       </c>
       <c r="T25" t="n">
-        <v>1874.857394246362</v>
+        <v>1874.857394246365</v>
       </c>
       <c r="U25" t="n">
-        <v>1628.696501276102</v>
+        <v>1628.696501276105</v>
       </c>
       <c r="V25" t="n">
-        <v>1416.955599941004</v>
+        <v>1416.955599941008</v>
       </c>
       <c r="W25" t="n">
-        <v>1170.482016774833</v>
+        <v>1170.482016774837</v>
       </c>
       <c r="X25" t="n">
-        <v>985.4360527476049</v>
+        <v>1021.214264418682</v>
       </c>
       <c r="Y25" t="n">
-        <v>807.587060474864</v>
+        <v>843.3652721459416</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2063.851482069681</v>
+        <v>2063.851482069679</v>
       </c>
       <c r="C26" t="n">
-        <v>1737.832552000059</v>
+        <v>1737.832552000057</v>
       </c>
       <c r="D26" t="n">
-        <v>1422.510440264098</v>
+        <v>1422.510440264096</v>
       </c>
       <c r="E26" t="n">
-        <v>1079.665774536643</v>
+        <v>1079.665774536641</v>
       </c>
       <c r="F26" t="n">
-        <v>711.6234566178246</v>
+        <v>711.6234566178236</v>
       </c>
       <c r="G26" t="n">
-        <v>339.4286697367961</v>
+        <v>339.4286697367957</v>
       </c>
       <c r="H26" t="n">
-        <v>84.11351618048013</v>
+        <v>84.11351618047968</v>
       </c>
       <c r="I26" t="n">
-        <v>82.51868482456224</v>
+        <v>82.51868482456213</v>
       </c>
       <c r="J26" t="n">
-        <v>265.9139770477008</v>
+        <v>265.9139770477007</v>
       </c>
       <c r="K26" t="n">
-        <v>591.5144980109967</v>
+        <v>591.5144980109966</v>
       </c>
       <c r="L26" t="n">
-        <v>1032.352497691448</v>
+        <v>1445.837100096393</v>
       </c>
       <c r="M26" t="n">
-        <v>1999.557548326896</v>
+        <v>1968.023752573938</v>
       </c>
       <c r="N26" t="n">
-        <v>2534.807535149696</v>
+        <v>2936.247194564603</v>
       </c>
       <c r="O26" t="n">
-        <v>3403.88583800645</v>
+        <v>3428.333317971239</v>
       </c>
       <c r="P26" t="n">
-        <v>3829.66681727838</v>
+        <v>3829.666817278374</v>
       </c>
       <c r="Q26" t="n">
-        <v>4070.97584045423</v>
+        <v>4070.975840454225</v>
       </c>
       <c r="R26" t="n">
-        <v>4125.934241228112</v>
+        <v>4125.934241228107</v>
       </c>
       <c r="S26" t="n">
-        <v>4057.084925663595</v>
+        <v>4057.08492566359</v>
       </c>
       <c r="T26" t="n">
-        <v>3893.762184373553</v>
+        <v>3893.762184373548</v>
       </c>
       <c r="U26" t="n">
-        <v>3683.170020630434</v>
+        <v>3683.170020630429</v>
       </c>
       <c r="V26" t="n">
-        <v>3395.050720157652</v>
+        <v>3395.050720157648</v>
       </c>
       <c r="W26" t="n">
-        <v>3085.225651758327</v>
+        <v>3085.225651758324</v>
       </c>
       <c r="X26" t="n">
-        <v>2754.703480368036</v>
+        <v>2754.703480368034</v>
       </c>
       <c r="Y26" t="n">
-        <v>2407.507735263014</v>
+        <v>2407.507735263011</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>948.9127400317424</v>
+        <v>948.9127400317421</v>
       </c>
       <c r="C27" t="n">
-        <v>774.4597107506154</v>
+        <v>774.4597107506152</v>
       </c>
       <c r="D27" t="n">
-        <v>625.5253010893641</v>
+        <v>625.5253010893639</v>
       </c>
       <c r="E27" t="n">
-        <v>466.2878460839086</v>
+        <v>466.2878460839084</v>
       </c>
       <c r="F27" t="n">
-        <v>319.7532881107935</v>
+        <v>319.7532881107934</v>
       </c>
       <c r="G27" t="n">
-        <v>183.3549157095125</v>
+        <v>183.3549157095123</v>
       </c>
       <c r="H27" t="n">
-        <v>92.51236582524849</v>
+        <v>92.51236582524838</v>
       </c>
       <c r="I27" t="n">
-        <v>82.51868482456224</v>
+        <v>82.51868482456213</v>
       </c>
       <c r="J27" t="n">
         <v>218.2920158393705</v>
@@ -6339,7 +6339,7 @@
         <v>2022.129340982241</v>
       </c>
       <c r="V27" t="n">
-        <v>1786.977232750499</v>
+        <v>1786.977232750498</v>
       </c>
       <c r="W27" t="n">
         <v>1532.739876022297</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>668.8821825154128</v>
+        <v>668.882182515419</v>
       </c>
       <c r="C28" t="n">
-        <v>542.8895864582951</v>
+        <v>542.8895864583017</v>
       </c>
       <c r="D28" t="n">
-        <v>470.0617523584624</v>
+        <v>519.7598864560447</v>
       </c>
       <c r="E28" t="n">
-        <v>470.0617523584624</v>
+        <v>414.7903797444412</v>
       </c>
       <c r="F28" t="n">
-        <v>366.1153917313413</v>
+        <v>310.8440191173204</v>
       </c>
       <c r="G28" t="n">
-        <v>241.3265709208196</v>
+        <v>186.0551983067991</v>
       </c>
       <c r="H28" t="n">
-        <v>137.7900574385824</v>
+        <v>82.51868482456213</v>
       </c>
       <c r="I28" t="n">
-        <v>82.51868482456224</v>
+        <v>82.51868482456213</v>
       </c>
       <c r="J28" t="n">
-        <v>167.6812575081022</v>
+        <v>167.6812575081024</v>
       </c>
       <c r="K28" t="n">
-        <v>410.3901997131214</v>
+        <v>410.3901997131222</v>
       </c>
       <c r="L28" t="n">
-        <v>764.7300866553843</v>
+        <v>764.7300866553853</v>
       </c>
       <c r="M28" t="n">
-        <v>1146.432988709597</v>
+        <v>1146.432988709599</v>
       </c>
       <c r="N28" t="n">
-        <v>1525.495247894909</v>
+        <v>1525.495247894911</v>
       </c>
       <c r="O28" t="n">
-        <v>1862.817298665126</v>
+        <v>1862.817298665128</v>
       </c>
       <c r="P28" t="n">
-        <v>2134.008495825694</v>
+        <v>2134.008495825696</v>
       </c>
       <c r="Q28" t="n">
-        <v>2251.280904606182</v>
+        <v>2251.280904606184</v>
       </c>
       <c r="R28" t="n">
-        <v>2203.064412024281</v>
+        <v>2203.064412024283</v>
       </c>
       <c r="S28" t="n">
-        <v>2053.806771863629</v>
+        <v>2053.806771863632</v>
       </c>
       <c r="T28" t="n">
-        <v>1874.857394246362</v>
+        <v>1874.857394246365</v>
       </c>
       <c r="U28" t="n">
-        <v>1628.696501276102</v>
+        <v>1628.696501276106</v>
       </c>
       <c r="V28" t="n">
-        <v>1416.955599941004</v>
+        <v>1416.955599941009</v>
       </c>
       <c r="W28" t="n">
-        <v>1170.482016774833</v>
+        <v>1170.482016774838</v>
       </c>
       <c r="X28" t="n">
-        <v>985.4360527476049</v>
+        <v>985.4360527476099</v>
       </c>
       <c r="Y28" t="n">
-        <v>807.5870604748632</v>
+        <v>807.5870604748691</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2063.851482069681</v>
+        <v>2063.851482069679</v>
       </c>
       <c r="C29" t="n">
-        <v>1737.832552000059</v>
+        <v>1737.832552000057</v>
       </c>
       <c r="D29" t="n">
-        <v>1422.510440264097</v>
+        <v>1422.510440264096</v>
       </c>
       <c r="E29" t="n">
-        <v>1079.665774536642</v>
+        <v>1079.665774536641</v>
       </c>
       <c r="F29" t="n">
-        <v>711.6234566178241</v>
+        <v>711.6234566178232</v>
       </c>
       <c r="G29" t="n">
         <v>339.4286697367957</v>
       </c>
       <c r="H29" t="n">
-        <v>84.11351618048013</v>
+        <v>84.11351618047971</v>
       </c>
       <c r="I29" t="n">
-        <v>82.51868482456224</v>
+        <v>82.51868482456216</v>
       </c>
       <c r="J29" t="n">
-        <v>265.9139770477008</v>
+        <v>265.9139770477007</v>
       </c>
       <c r="K29" t="n">
-        <v>758.2500336972846</v>
+        <v>591.5144980109966</v>
       </c>
       <c r="L29" t="n">
-        <v>1199.088033377735</v>
+        <v>1032.352497691447</v>
       </c>
       <c r="M29" t="n">
-        <v>1721.274685855279</v>
+        <v>1999.557548326895</v>
       </c>
       <c r="N29" t="n">
-        <v>2256.52467267808</v>
+        <v>2952.097573217961</v>
       </c>
       <c r="O29" t="n">
-        <v>3125.602975534834</v>
+        <v>3444.183696624597</v>
       </c>
       <c r="P29" t="n">
-        <v>3829.66681727838</v>
+        <v>3829.666817278375</v>
       </c>
       <c r="Q29" t="n">
-        <v>4070.97584045423</v>
+        <v>4070.975840454226</v>
       </c>
       <c r="R29" t="n">
-        <v>4125.934241228112</v>
+        <v>4125.934241228108</v>
       </c>
       <c r="S29" t="n">
-        <v>4057.084925663594</v>
+        <v>4057.08492566359</v>
       </c>
       <c r="T29" t="n">
-        <v>3893.762184373552</v>
+        <v>3893.762184373548</v>
       </c>
       <c r="U29" t="n">
-        <v>3683.170020630433</v>
+        <v>3683.170020630429</v>
       </c>
       <c r="V29" t="n">
-        <v>3395.050720157651</v>
+        <v>3395.050720157648</v>
       </c>
       <c r="W29" t="n">
-        <v>3085.225651758326</v>
+        <v>3085.225651758323</v>
       </c>
       <c r="X29" t="n">
-        <v>2754.703480368036</v>
+        <v>2754.703480368033</v>
       </c>
       <c r="Y29" t="n">
-        <v>2407.507735263013</v>
+        <v>2407.507735263011</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>948.9127400317424</v>
+        <v>948.9127400317421</v>
       </c>
       <c r="C30" t="n">
-        <v>774.4597107506154</v>
+        <v>774.4597107506152</v>
       </c>
       <c r="D30" t="n">
-        <v>625.5253010893641</v>
+        <v>625.5253010893639</v>
       </c>
       <c r="E30" t="n">
-        <v>466.2878460839086</v>
+        <v>466.2878460839084</v>
       </c>
       <c r="F30" t="n">
-        <v>319.7532881107935</v>
+        <v>319.7532881107934</v>
       </c>
       <c r="G30" t="n">
-        <v>183.3549157095125</v>
+        <v>183.3549157095123</v>
       </c>
       <c r="H30" t="n">
-        <v>92.51236582524849</v>
+        <v>92.51236582524841</v>
       </c>
       <c r="I30" t="n">
-        <v>82.51868482456224</v>
+        <v>82.51868482456216</v>
       </c>
       <c r="J30" t="n">
         <v>218.2920158393705</v>
@@ -6576,7 +6576,7 @@
         <v>2022.129340982241</v>
       </c>
       <c r="V30" t="n">
-        <v>1786.977232750499</v>
+        <v>1786.977232750498</v>
       </c>
       <c r="W30" t="n">
         <v>1532.739876022297</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>668.8821825154138</v>
+        <v>668.8821825154195</v>
       </c>
       <c r="C31" t="n">
-        <v>542.8895864582961</v>
+        <v>542.8895864583021</v>
       </c>
       <c r="D31" t="n">
-        <v>435.7165339167497</v>
+        <v>542.8895864583021</v>
       </c>
       <c r="E31" t="n">
-        <v>330.7470272051458</v>
+        <v>470.0617523584609</v>
       </c>
       <c r="F31" t="n">
-        <v>262.5788782491041</v>
+        <v>366.1153917313402</v>
       </c>
       <c r="G31" t="n">
-        <v>137.7900574385824</v>
+        <v>241.3265709208188</v>
       </c>
       <c r="H31" t="n">
-        <v>137.7900574385824</v>
+        <v>137.790057438582</v>
       </c>
       <c r="I31" t="n">
-        <v>82.51868482456224</v>
+        <v>82.51868482456216</v>
       </c>
       <c r="J31" t="n">
-        <v>167.6812575081022</v>
+        <v>167.6812575081024</v>
       </c>
       <c r="K31" t="n">
-        <v>410.3901997131215</v>
+        <v>410.3901997131222</v>
       </c>
       <c r="L31" t="n">
-        <v>764.7300866553844</v>
+        <v>764.7300866553854</v>
       </c>
       <c r="M31" t="n">
-        <v>1146.432988709598</v>
+        <v>1146.432988709599</v>
       </c>
       <c r="N31" t="n">
-        <v>1525.49524789491</v>
+        <v>1525.495247894911</v>
       </c>
       <c r="O31" t="n">
-        <v>1862.817298665127</v>
+        <v>1862.817298665128</v>
       </c>
       <c r="P31" t="n">
-        <v>2134.008495825694</v>
+        <v>2134.008495825696</v>
       </c>
       <c r="Q31" t="n">
-        <v>2251.280904606183</v>
+        <v>2251.280904606184</v>
       </c>
       <c r="R31" t="n">
-        <v>2203.064412024281</v>
+        <v>2203.064412024283</v>
       </c>
       <c r="S31" t="n">
-        <v>2053.806771863629</v>
+        <v>2053.806771863632</v>
       </c>
       <c r="T31" t="n">
-        <v>1874.857394246362</v>
+        <v>1874.857394246365</v>
       </c>
       <c r="U31" t="n">
-        <v>1628.696501276102</v>
+        <v>1628.696501276106</v>
       </c>
       <c r="V31" t="n">
-        <v>1416.955599941004</v>
+        <v>1416.955599941009</v>
       </c>
       <c r="W31" t="n">
-        <v>1170.482016774833</v>
+        <v>1170.482016774838</v>
       </c>
       <c r="X31" t="n">
-        <v>985.436052747605</v>
+        <v>985.43605274761</v>
       </c>
       <c r="Y31" t="n">
-        <v>807.5870604748642</v>
+        <v>807.5870604748695</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>80.81655370896432</v>
       </c>
       <c r="J32" t="n">
-        <v>431.6174949524559</v>
+        <v>264.2118459321029</v>
       </c>
       <c r="K32" t="n">
-        <v>757.2180159157517</v>
+        <v>589.8123668953988</v>
       </c>
       <c r="L32" t="n">
-        <v>1198.056015596203</v>
+        <v>1444.134968980796</v>
       </c>
       <c r="M32" t="n">
-        <v>1720.242668073747</v>
+        <v>1966.321621458339</v>
       </c>
       <c r="N32" t="n">
-        <v>2255.492654896548</v>
+        <v>2501.57160828114</v>
       </c>
       <c r="O32" t="n">
-        <v>2765.24532332738</v>
+        <v>3359.077140844706</v>
       </c>
       <c r="P32" t="n">
-        <v>3469.309165070926</v>
+        <v>3744.560261498484</v>
       </c>
       <c r="Q32" t="n">
-        <v>3920.810029000082</v>
+        <v>3985.869284674334</v>
       </c>
       <c r="R32" t="n">
         <v>4040.827685448216</v>
@@ -6728,7 +6728,7 @@
         <v>3977.821912262869</v>
       </c>
       <c r="T32" t="n">
-        <v>3820.342713351997</v>
+        <v>3820.342713351996</v>
       </c>
       <c r="U32" t="n">
         <v>3615.594091988047</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>765.5899798989424</v>
+        <v>765.5899798989423</v>
       </c>
       <c r="C34" t="n">
-        <v>645.4409262209948</v>
+        <v>645.4409262209947</v>
       </c>
       <c r="D34" t="n">
         <v>544.1114160586184</v>
@@ -6844,10 +6844,10 @@
         <v>444.9854517261846</v>
       </c>
       <c r="F34" t="n">
-        <v>346.8826334782335</v>
+        <v>346.8826334782336</v>
       </c>
       <c r="G34" t="n">
-        <v>227.9373550468819</v>
+        <v>227.937355046882</v>
       </c>
       <c r="H34" t="n">
         <v>130.2443839438144</v>
@@ -6856,25 +6856,25 @@
         <v>80.81655370896432</v>
       </c>
       <c r="J34" t="n">
-        <v>171.706382278329</v>
+        <v>171.7063822783288</v>
       </c>
       <c r="K34" t="n">
-        <v>420.1425803691729</v>
+        <v>420.1425803691728</v>
       </c>
       <c r="L34" t="n">
-        <v>780.2097231972605</v>
+        <v>780.2097231972602</v>
       </c>
       <c r="M34" t="n">
         <v>1167.639881137298</v>
       </c>
       <c r="N34" t="n">
-        <v>1552.429396208434</v>
+        <v>1552.429396208435</v>
       </c>
       <c r="O34" t="n">
         <v>1895.478702864476</v>
       </c>
       <c r="P34" t="n">
-        <v>2172.397155910868</v>
+        <v>2172.397155910869</v>
       </c>
       <c r="Q34" t="n">
         <v>2295.39682057718</v>
@@ -6883,13 +6883,13 @@
         <v>2253.023870374449</v>
       </c>
       <c r="S34" t="n">
-        <v>2109.609772592968</v>
+        <v>2109.609772592967</v>
       </c>
       <c r="T34" t="n">
-        <v>1936.503937354871</v>
+        <v>1936.50393735487</v>
       </c>
       <c r="U34" t="n">
-        <v>1696.186586763781</v>
+        <v>1696.18658676378</v>
       </c>
       <c r="V34" t="n">
         <v>1490.289227807853</v>
@@ -6898,10 +6898,10 @@
         <v>1249.659187020852</v>
       </c>
       <c r="X34" t="n">
-        <v>1070.456765372794</v>
+        <v>1070.456765372793</v>
       </c>
       <c r="Y34" t="n">
-        <v>898.4513154792228</v>
+        <v>898.4513154792226</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2025.493265323145</v>
+        <v>2025.493265323146</v>
       </c>
       <c r="C35" t="n">
-        <v>1705.317877632693</v>
+        <v>1705.317877632694</v>
       </c>
       <c r="D35" t="n">
-        <v>1395.839308275902</v>
+        <v>1395.839308275903</v>
       </c>
       <c r="E35" t="n">
-        <v>1058.838184927617</v>
+        <v>1058.838184927618</v>
       </c>
       <c r="F35" t="n">
-        <v>696.639409387969</v>
+        <v>696.6394093879694</v>
       </c>
       <c r="G35" t="n">
         <v>330.2881648861104</v>
@@ -6935,52 +6935,52 @@
         <v>80.81655370896434</v>
       </c>
       <c r="J35" t="n">
-        <v>264.2118459321029</v>
+        <v>431.6174949524559</v>
       </c>
       <c r="K35" t="n">
-        <v>589.8123668953988</v>
+        <v>757.2180159157517</v>
       </c>
       <c r="L35" t="n">
-        <v>1030.65036657585</v>
+        <v>1198.056015596203</v>
       </c>
       <c r="M35" t="n">
-        <v>1898.767575447405</v>
+        <v>1720.242668073747</v>
       </c>
       <c r="N35" t="n">
-        <v>2866.99101743807</v>
+        <v>2688.466110064412</v>
       </c>
       <c r="O35" t="n">
-        <v>3359.077140844706</v>
+        <v>3180.552233471048</v>
       </c>
       <c r="P35" t="n">
-        <v>3744.560261498484</v>
+        <v>3744.560261498485</v>
       </c>
       <c r="Q35" t="n">
         <v>3985.869284674335</v>
       </c>
       <c r="R35" t="n">
-        <v>4040.827685448216</v>
+        <v>4040.827685448217</v>
       </c>
       <c r="S35" t="n">
-        <v>3977.821912262869</v>
+        <v>3977.82191226287</v>
       </c>
       <c r="T35" t="n">
         <v>3820.342713351997</v>
       </c>
       <c r="U35" t="n">
-        <v>3615.594091988047</v>
+        <v>3615.594091988048</v>
       </c>
       <c r="V35" t="n">
-        <v>3333.318333894435</v>
+        <v>3333.318333894436</v>
       </c>
       <c r="W35" t="n">
         <v>3029.336807874281</v>
       </c>
       <c r="X35" t="n">
-        <v>2704.65817886316</v>
+        <v>2704.658178863161</v>
       </c>
       <c r="Y35" t="n">
-        <v>2363.305976137308</v>
+        <v>2363.305976137309</v>
       </c>
     </row>
     <row r="36">
@@ -7087,25 +7087,25 @@
         <v>227.9373550468816</v>
       </c>
       <c r="H37" t="n">
-        <v>130.2443839438145</v>
+        <v>130.2443839438144</v>
       </c>
       <c r="I37" t="n">
         <v>80.81655370896434</v>
       </c>
       <c r="J37" t="n">
-        <v>171.7063822783288</v>
+        <v>171.7063822783284</v>
       </c>
       <c r="K37" t="n">
-        <v>420.1425803691728</v>
+        <v>420.1425803691724</v>
       </c>
       <c r="L37" t="n">
-        <v>780.2097231972602</v>
+        <v>780.20972319726</v>
       </c>
       <c r="M37" t="n">
         <v>1167.639881137298</v>
       </c>
       <c r="N37" t="n">
-        <v>1552.429396208435</v>
+        <v>1552.429396208434</v>
       </c>
       <c r="O37" t="n">
         <v>1895.478702864476</v>
@@ -7114,25 +7114,25 @@
         <v>2172.397155910868</v>
       </c>
       <c r="Q37" t="n">
-        <v>2295.396820577181</v>
+        <v>2295.39682057718</v>
       </c>
       <c r="R37" t="n">
         <v>2253.023870374449</v>
       </c>
       <c r="S37" t="n">
-        <v>2109.609772592968</v>
+        <v>2109.609772592967</v>
       </c>
       <c r="T37" t="n">
         <v>1936.50393735487</v>
       </c>
       <c r="U37" t="n">
-        <v>1696.186586763781</v>
+        <v>1696.18658676378</v>
       </c>
       <c r="V37" t="n">
         <v>1490.289227807853</v>
       </c>
       <c r="W37" t="n">
-        <v>1249.659187020852</v>
+        <v>1249.659187020851</v>
       </c>
       <c r="X37" t="n">
         <v>1070.456765372793</v>
@@ -7175,31 +7175,31 @@
         <v>264.2118459321029</v>
       </c>
       <c r="K38" t="n">
-        <v>589.8123668953988</v>
+        <v>910.7163253408519</v>
       </c>
       <c r="L38" t="n">
-        <v>1030.65036657585</v>
+        <v>1351.554325021303</v>
       </c>
       <c r="M38" t="n">
-        <v>1997.855417211298</v>
+        <v>1873.740977498847</v>
       </c>
       <c r="N38" t="n">
-        <v>2866.99101743807</v>
+        <v>2408.990964321648</v>
       </c>
       <c r="O38" t="n">
-        <v>3359.077140844706</v>
+        <v>3278.069267178402</v>
       </c>
       <c r="P38" t="n">
-        <v>3744.560261498484</v>
+        <v>3744.560261498485</v>
       </c>
       <c r="Q38" t="n">
         <v>3985.869284674335</v>
       </c>
       <c r="R38" t="n">
-        <v>4040.827685448216</v>
+        <v>4040.827685448217</v>
       </c>
       <c r="S38" t="n">
-        <v>3977.821912262869</v>
+        <v>3977.82191226287</v>
       </c>
       <c r="T38" t="n">
         <v>3820.342713351997</v>
@@ -7324,7 +7324,7 @@
         <v>227.9373550468817</v>
       </c>
       <c r="H40" t="n">
-        <v>130.2443839438145</v>
+        <v>130.2443839438144</v>
       </c>
       <c r="I40" t="n">
         <v>80.81655370896434</v>
@@ -7336,19 +7336,19 @@
         <v>420.1425803691728</v>
       </c>
       <c r="L40" t="n">
-        <v>780.2097231972596</v>
+        <v>780.2097231972602</v>
       </c>
       <c r="M40" t="n">
-        <v>1167.639881137297</v>
+        <v>1167.639881137298</v>
       </c>
       <c r="N40" t="n">
         <v>1552.429396208434</v>
       </c>
       <c r="O40" t="n">
-        <v>1895.478702864475</v>
+        <v>1895.478702864476</v>
       </c>
       <c r="P40" t="n">
-        <v>2172.397155910867</v>
+        <v>2172.397155910868</v>
       </c>
       <c r="Q40" t="n">
         <v>2295.39682057718</v>
@@ -7357,7 +7357,7 @@
         <v>2253.023870374449</v>
       </c>
       <c r="S40" t="n">
-        <v>2109.609772592967</v>
+        <v>2109.609772592968</v>
       </c>
       <c r="T40" t="n">
         <v>1936.50393735487</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2025.493265323145</v>
+        <v>2025.493265323146</v>
       </c>
       <c r="C41" t="n">
         <v>1705.317877632693</v>
@@ -7397,7 +7397,7 @@
         <v>1058.838184927617</v>
       </c>
       <c r="F41" t="n">
-        <v>696.639409387969</v>
+        <v>696.6394093879685</v>
       </c>
       <c r="G41" t="n">
         <v>330.2881648861104</v>
@@ -7409,49 +7409,49 @@
         <v>80.81655370896434</v>
       </c>
       <c r="J41" t="n">
-        <v>431.6174949524559</v>
+        <v>264.2118459321029</v>
       </c>
       <c r="K41" t="n">
-        <v>757.2180159157517</v>
+        <v>589.8123668953988</v>
       </c>
       <c r="L41" t="n">
-        <v>1198.056015596203</v>
+        <v>1030.65036657585</v>
       </c>
       <c r="M41" t="n">
-        <v>1720.242668073747</v>
+        <v>1997.855417211298</v>
       </c>
       <c r="N41" t="n">
-        <v>2255.492654896548</v>
+        <v>2866.991017438071</v>
       </c>
       <c r="O41" t="n">
-        <v>2975.437164080686</v>
+        <v>3359.077140844707</v>
       </c>
       <c r="P41" t="n">
-        <v>3679.501005824231</v>
+        <v>3744.560261498485</v>
       </c>
       <c r="Q41" t="n">
-        <v>3920.810029000082</v>
+        <v>3985.869284674335</v>
       </c>
       <c r="R41" t="n">
-        <v>4040.827685448216</v>
+        <v>4040.827685448217</v>
       </c>
       <c r="S41" t="n">
-        <v>3977.821912262869</v>
+        <v>3977.82191226287</v>
       </c>
       <c r="T41" t="n">
         <v>3820.342713351997</v>
       </c>
       <c r="U41" t="n">
-        <v>3615.594091988047</v>
+        <v>3615.594091988048</v>
       </c>
       <c r="V41" t="n">
-        <v>3333.318333894435</v>
+        <v>3333.318333894437</v>
       </c>
       <c r="W41" t="n">
-        <v>3029.336807874281</v>
+        <v>3029.336807874282</v>
       </c>
       <c r="X41" t="n">
-        <v>2704.65817886316</v>
+        <v>2704.658178863161</v>
       </c>
       <c r="Y41" t="n">
         <v>2363.305976137308</v>
@@ -7549,16 +7549,16 @@
         <v>645.4409262209949</v>
       </c>
       <c r="D43" t="n">
-        <v>544.1114160586185</v>
+        <v>544.1114160586184</v>
       </c>
       <c r="E43" t="n">
-        <v>444.9854517261847</v>
+        <v>444.9854517261845</v>
       </c>
       <c r="F43" t="n">
-        <v>346.8826334782336</v>
+        <v>346.8826334782334</v>
       </c>
       <c r="G43" t="n">
-        <v>227.937355046882</v>
+        <v>227.9373550468819</v>
       </c>
       <c r="H43" t="n">
         <v>130.2443839438145</v>
@@ -7573,13 +7573,13 @@
         <v>420.1425803691727</v>
       </c>
       <c r="L43" t="n">
-        <v>780.2097231972602</v>
+        <v>780.20972319726</v>
       </c>
       <c r="M43" t="n">
         <v>1167.639881137298</v>
       </c>
       <c r="N43" t="n">
-        <v>1552.429396208434</v>
+        <v>1552.429396208435</v>
       </c>
       <c r="O43" t="n">
         <v>1895.478702864476</v>
@@ -7594,7 +7594,7 @@
         <v>2253.023870374449</v>
       </c>
       <c r="S43" t="n">
-        <v>2109.609772592967</v>
+        <v>2109.609772592968</v>
       </c>
       <c r="T43" t="n">
         <v>1936.50393735487</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2025.493265323146</v>
+        <v>2025.493265323145</v>
       </c>
       <c r="C44" t="n">
-        <v>1705.317877632693</v>
+        <v>1705.317877632692</v>
       </c>
       <c r="D44" t="n">
-        <v>1395.839308275902</v>
+        <v>1395.839308275901</v>
       </c>
       <c r="E44" t="n">
         <v>1058.838184927617</v>
       </c>
       <c r="F44" t="n">
-        <v>696.639409387969</v>
+        <v>696.6394093879683</v>
       </c>
       <c r="G44" t="n">
         <v>330.2881648861104</v>
@@ -7646,34 +7646,34 @@
         <v>80.81655370896434</v>
       </c>
       <c r="J44" t="n">
-        <v>264.2118459321029</v>
+        <v>431.6174949524559</v>
       </c>
       <c r="K44" t="n">
-        <v>589.8123668953988</v>
+        <v>757.2180159157517</v>
       </c>
       <c r="L44" t="n">
-        <v>1030.65036657585</v>
+        <v>1198.056015596203</v>
       </c>
       <c r="M44" t="n">
-        <v>1997.855417211298</v>
+        <v>1720.242668073747</v>
       </c>
       <c r="N44" t="n">
-        <v>2866.99101743807</v>
+        <v>2255.492654896548</v>
       </c>
       <c r="O44" t="n">
-        <v>3359.077140844706</v>
+        <v>2765.245323327381</v>
       </c>
       <c r="P44" t="n">
-        <v>3744.560261498484</v>
+        <v>3469.309165070927</v>
       </c>
       <c r="Q44" t="n">
-        <v>3985.869284674335</v>
+        <v>3920.810029000083</v>
       </c>
       <c r="R44" t="n">
-        <v>4040.827685448216</v>
+        <v>4040.827685448217</v>
       </c>
       <c r="S44" t="n">
-        <v>3977.821912262869</v>
+        <v>3977.82191226287</v>
       </c>
       <c r="T44" t="n">
         <v>3820.342713351997</v>
@@ -7688,10 +7688,10 @@
         <v>3029.336807874281</v>
       </c>
       <c r="X44" t="n">
-        <v>2704.658178863161</v>
+        <v>2704.65817886316</v>
       </c>
       <c r="Y44" t="n">
-        <v>2363.305976137308</v>
+        <v>2363.305976137307</v>
       </c>
     </row>
     <row r="45">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>765.5899798989425</v>
+        <v>765.5899798989428</v>
       </c>
       <c r="C46" t="n">
-        <v>645.4409262209948</v>
+        <v>645.4409262209952</v>
       </c>
       <c r="D46" t="n">
-        <v>544.1114160586184</v>
+        <v>544.1114160586186</v>
       </c>
       <c r="E46" t="n">
-        <v>444.9854517261845</v>
+        <v>444.9854517261847</v>
       </c>
       <c r="F46" t="n">
-        <v>346.8826334782335</v>
+        <v>346.8826334782336</v>
       </c>
       <c r="G46" t="n">
-        <v>227.9373550468817</v>
+        <v>227.9373550468819</v>
       </c>
       <c r="H46" t="n">
         <v>130.2443839438145</v>
@@ -7804,43 +7804,43 @@
         <v>80.81655370896434</v>
       </c>
       <c r="J46" t="n">
-        <v>171.7063822783282</v>
+        <v>171.7063822783287</v>
       </c>
       <c r="K46" t="n">
-        <v>420.1425803691722</v>
+        <v>420.1425803691732</v>
       </c>
       <c r="L46" t="n">
-        <v>780.2097231972596</v>
+        <v>780.2097231972606</v>
       </c>
       <c r="M46" t="n">
-        <v>1167.639881137297</v>
+        <v>1167.639881137298</v>
       </c>
       <c r="N46" t="n">
-        <v>1552.429396208434</v>
+        <v>1552.429396208435</v>
       </c>
       <c r="O46" t="n">
-        <v>1895.478702864475</v>
+        <v>1895.478702864476</v>
       </c>
       <c r="P46" t="n">
-        <v>2172.397155910867</v>
+        <v>2172.397155910868</v>
       </c>
       <c r="Q46" t="n">
-        <v>2295.39682057718</v>
+        <v>2295.396820577181</v>
       </c>
       <c r="R46" t="n">
         <v>2253.023870374449</v>
       </c>
       <c r="S46" t="n">
-        <v>2109.609772592967</v>
+        <v>2109.609772592968</v>
       </c>
       <c r="T46" t="n">
-        <v>1936.50393735487</v>
+        <v>1936.503937354871</v>
       </c>
       <c r="U46" t="n">
-        <v>1696.18658676378</v>
+        <v>1696.186586763781</v>
       </c>
       <c r="V46" t="n">
-        <v>1490.289227807853</v>
+        <v>1490.289227807854</v>
       </c>
       <c r="W46" t="n">
         <v>1249.659187020852</v>
@@ -7849,7 +7849,7 @@
         <v>1070.456765372794</v>
       </c>
       <c r="Y46" t="n">
-        <v>898.4513154792229</v>
+        <v>898.4513154792232</v>
       </c>
     </row>
   </sheetData>
@@ -8058,19 +8058,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>164.3167157393088</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L3" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>170.1862697047606</v>
+        <v>169.0715212093943</v>
       </c>
       <c r="P3" t="n">
         <v>161.5644326746464</v>
@@ -8298,16 +8298,16 @@
         <v>165.4314642346751</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M6" t="n">
-        <v>168.6093106869682</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N6" t="n">
-        <v>158.9317373436494</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O6" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8456,16 +8456,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>284.6330791752774</v>
+        <v>284.6330791752763</v>
       </c>
       <c r="M8" t="n">
-        <v>279.2128974325629</v>
+        <v>279.2128974325618</v>
       </c>
       <c r="N8" t="n">
-        <v>278.2797278018811</v>
+        <v>278.27972780188</v>
       </c>
       <c r="O8" t="n">
-        <v>276.9904649520157</v>
+        <v>276.9904649520146</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8535,22 +8535,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>187.4210439851643</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>191.0006981273085</v>
+        <v>191.0006981273073</v>
       </c>
       <c r="N9" t="n">
-        <v>180.2083762886235</v>
+        <v>178.2339656136612</v>
       </c>
       <c r="O9" t="n">
-        <v>189.4884979747734</v>
+        <v>191.4629086497335</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>188.8484382913105</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>45.82040233053388</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>45.82040233053399</v>
       </c>
       <c r="R12" t="n">
         <v>2.310982705190099</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>225.0745017080325</v>
+        <v>225.074501708029</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>45.82040233053422</v>
+        <v>45.82040233053431</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>433.6716980386964</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>55.97788653595561</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>45.82040233053422</v>
+        <v>45.82040233053431</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9401,25 +9401,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>221.3567073787919</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>166.0730286167663</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>45.82040233053422</v>
+        <v>45.82040233053431</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9644,19 +9644,19 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>433.6716980386964</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>336.9049236192897</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>45.82040233053422</v>
+        <v>45.82040233053431</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9878,19 +9878,19 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>40.70490769510246</v>
+        <v>16.01048348824014</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>45.82040233053422</v>
+        <v>45.82040233053434</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -10112,22 +10112,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>168.4197330164524</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>421.5050889578437</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>45.82040233053422</v>
+        <v>45.82040233053434</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>17.84499497393574</v>
+        <v>369.1105142999288</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>349.4248044383957</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>180.3281892663221</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10823,22 +10823,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>337.2581953575473</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>81.82613501646944</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11066,22 +11066,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>337.2581953575477</v>
       </c>
       <c r="O41" t="n">
-        <v>230.1599856338406</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,22 +11303,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>337.2581953575473</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>17.84499497393665</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>37.7972432874031</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>67.20112786431469</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23321,7 +23321,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>145.0152993494963</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>97.23280988996132</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>50.95248393893469</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>190.2792147611264</v>
+        <v>122.8872923985995</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>21.43898015244634</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.978030259970334</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>45.22397282374519</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0550836044979</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>145.0152993494963</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>97.23280988996132</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.6740348431758</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2134350426385</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>162.4005240805613</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>123.5409326024162</v>
       </c>
       <c r="H19" t="n">
-        <v>102.5011483474149</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>14.38064529936255</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>35.42042955436875</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>35.01468088092799</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>102.9068970208496</v>
       </c>
       <c r="G22" t="n">
-        <v>123.5409326024165</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>14.38064529936726</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>31.8202558856527</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>106.101322016131</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>102.5011483474146</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>35.42042955436261</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>34.00176625729664</v>
+        <v>83.20291901389622</v>
       </c>
       <c r="E28" t="n">
-        <v>103.9198116444878</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>54.7186588878796</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>106.1013220161306</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>31.82025588564463</v>
       </c>
       <c r="F31" t="n">
-        <v>35.42042955436858</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>102.5011483474149</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1082317.996812521</v>
+        <v>1082317.99681252</v>
       </c>
     </row>
     <row r="7">
@@ -26314,31 +26314,31 @@
         <v>266838.5752058921</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="E2" t="n">
         <v>219274.4738537398</v>
       </c>
       <c r="F2" t="n">
-        <v>241359.3139064593</v>
+        <v>241359.3139064592</v>
       </c>
       <c r="G2" t="n">
-        <v>265762.786898258</v>
+        <v>265762.7868982584</v>
       </c>
       <c r="H2" t="n">
-        <v>265762.7868982581</v>
+        <v>265762.7868982584</v>
       </c>
       <c r="I2" t="n">
-        <v>265762.7868982582</v>
+        <v>265762.7868982584</v>
       </c>
       <c r="J2" t="n">
-        <v>265762.786898258</v>
+        <v>265762.7868982584</v>
       </c>
       <c r="K2" t="n">
-        <v>265762.7868982581</v>
+        <v>265762.7868982584</v>
       </c>
       <c r="L2" t="n">
         <v>266838.575205892</v>
@@ -26347,13 +26347,13 @@
         <v>266838.575205892</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058918</v>
+        <v>266838.575205892</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058918</v>
+        <v>266838.5752058919</v>
       </c>
     </row>
     <row r="3">
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6609.162355477281</v>
+        <v>6609.162355476928</v>
       </c>
       <c r="E3" t="n">
         <v>1090194.618562405</v>
       </c>
       <c r="F3" t="n">
-        <v>63029.02729544402</v>
+        <v>63029.02729544372</v>
       </c>
       <c r="G3" t="n">
-        <v>34011.3208016651</v>
+        <v>34011.32080166529</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7218.764569210179</v>
+        <v>7218.76456921009</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>38639.40636596778</v>
+        <v>38639.40636596771</v>
       </c>
       <c r="M3" t="n">
-        <v>190053.0019094775</v>
+        <v>190053.0019094778</v>
       </c>
       <c r="N3" t="n">
-        <v>53878.21896927754</v>
+        <v>53878.21896927729</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>394756.8150386528</v>
       </c>
       <c r="D4" t="n">
-        <v>391381.2153676687</v>
+        <v>391381.2153676689</v>
       </c>
       <c r="E4" t="n">
         <v>7327.245605633996</v>
       </c>
       <c r="F4" t="n">
-        <v>24764.51581592314</v>
+        <v>24764.51581592307</v>
       </c>
       <c r="G4" t="n">
-        <v>67727.00931017984</v>
+        <v>67727.00931018</v>
       </c>
       <c r="H4" t="n">
-        <v>67727.00931017984</v>
+        <v>67727.00931018002</v>
       </c>
       <c r="I4" t="n">
-        <v>67727.00931017986</v>
+        <v>67727.00931018003</v>
       </c>
       <c r="J4" t="n">
-        <v>67727.00931017984</v>
+        <v>67727.00931018007</v>
       </c>
       <c r="K4" t="n">
-        <v>67727.00931017984</v>
+        <v>67727.00931018009</v>
       </c>
       <c r="L4" t="n">
         <v>71695.45052355211</v>
       </c>
       <c r="M4" t="n">
+        <v>71695.45052355211</v>
+      </c>
+      <c r="N4" t="n">
         <v>71695.45052355209</v>
       </c>
-      <c r="N4" t="n">
-        <v>71695.45052355208</v>
-      </c>
       <c r="O4" t="n">
-        <v>71695.45052355203</v>
+        <v>71695.45052355202</v>
       </c>
       <c r="P4" t="n">
-        <v>71695.45052355205</v>
+        <v>71695.45052355202</v>
       </c>
     </row>
     <row r="5">
@@ -26473,37 +26473,37 @@
         <v>35305.07353582722</v>
       </c>
       <c r="D5" t="n">
-        <v>36598.69318368164</v>
+        <v>36598.69318368157</v>
       </c>
       <c r="E5" t="n">
-        <v>72742.84039964227</v>
+        <v>72742.84039964229</v>
       </c>
       <c r="F5" t="n">
-        <v>86117.42022682374</v>
+        <v>86117.42022682368</v>
       </c>
       <c r="G5" t="n">
-        <v>89691.54238741772</v>
+        <v>89691.54238741768</v>
       </c>
       <c r="H5" t="n">
-        <v>89691.54238741772</v>
+        <v>89691.54238741768</v>
       </c>
       <c r="I5" t="n">
-        <v>89691.54238741772</v>
+        <v>89691.54238741768</v>
       </c>
       <c r="J5" t="n">
-        <v>89691.54238741772</v>
+        <v>89691.54238741766</v>
       </c>
       <c r="K5" t="n">
-        <v>89691.54238741772</v>
+        <v>89691.54238741768</v>
       </c>
       <c r="L5" t="n">
         <v>88884.270896195</v>
       </c>
       <c r="M5" t="n">
-        <v>88884.270896195</v>
+        <v>88884.27089619501</v>
       </c>
       <c r="N5" t="n">
-        <v>88884.270896195</v>
+        <v>88884.27089619501</v>
       </c>
       <c r="O5" t="n">
         <v>88884.270896195</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-172469.3654039009</v>
+        <v>-172469.3654039008</v>
       </c>
       <c r="C6" t="n">
-        <v>-163223.313368588</v>
+        <v>-163223.3133685879</v>
       </c>
       <c r="D6" t="n">
-        <v>-167750.4957009356</v>
+        <v>-167750.4957009353</v>
       </c>
       <c r="E6" t="n">
-        <v>-950990.2307139409</v>
+        <v>-951356.10841665</v>
       </c>
       <c r="F6" t="n">
-        <v>67448.35056826839</v>
+        <v>67252.35625058073</v>
       </c>
       <c r="G6" t="n">
-        <v>74332.91439899537</v>
+        <v>74324.63910432131</v>
       </c>
       <c r="H6" t="n">
-        <v>108344.2352006605</v>
+        <v>108335.9599059866</v>
       </c>
       <c r="I6" t="n">
-        <v>108344.2352006606</v>
+        <v>108335.9599059866</v>
       </c>
       <c r="J6" t="n">
-        <v>101125.4706314503</v>
+        <v>101117.1953367765</v>
       </c>
       <c r="K6" t="n">
-        <v>108344.2352006605</v>
+        <v>108335.9599059866</v>
       </c>
       <c r="L6" t="n">
-        <v>67619.44742017708</v>
+        <v>67619.44742017722</v>
       </c>
       <c r="M6" t="n">
-        <v>-83794.14812333255</v>
+        <v>-83794.14812333293</v>
       </c>
       <c r="N6" t="n">
-        <v>52380.63481686718</v>
+        <v>52380.63481686766</v>
       </c>
       <c r="O6" t="n">
-        <v>106258.853786145</v>
+        <v>106258.8537861451</v>
       </c>
       <c r="P6" t="n">
         <v>106258.8537861448</v>
@@ -26698,22 +26698,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="H2" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="I2" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="J2" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="K2" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="L2" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="M2" t="n">
         <v>48.29925795745972</v>
@@ -26722,10 +26722,10 @@
         <v>48.29925795745972</v>
       </c>
       <c r="O2" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="P2" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
     </row>
     <row r="3">
@@ -26793,28 +26793,28 @@
         <v>27.59002526031614</v>
       </c>
       <c r="D4" t="n">
-        <v>48.86666420529016</v>
+        <v>48.86666420528903</v>
       </c>
       <c r="E4" t="n">
-        <v>811.5069184125961</v>
+        <v>811.5069184125962</v>
       </c>
       <c r="F4" t="n">
-        <v>1031.483560307028</v>
+        <v>1031.483560307027</v>
       </c>
       <c r="G4" t="n">
-        <v>1031.483560307028</v>
+        <v>1031.483560307027</v>
       </c>
       <c r="H4" t="n">
-        <v>1031.483560307028</v>
+        <v>1031.483560307027</v>
       </c>
       <c r="I4" t="n">
-        <v>1031.483560307028</v>
+        <v>1031.483560307027</v>
       </c>
       <c r="J4" t="n">
-        <v>1031.483560307028</v>
+        <v>1031.483560307027</v>
       </c>
       <c r="K4" t="n">
-        <v>1031.483560307028</v>
+        <v>1031.483560307027</v>
       </c>
       <c r="L4" t="n">
         <v>1010.206921362054</v>
@@ -26920,22 +26920,22 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.553435746746744e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745964</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27015,13 +27015,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>21.27663894497402</v>
+        <v>21.27663894497289</v>
       </c>
       <c r="E4" t="n">
-        <v>762.6402542073059</v>
+        <v>762.6402542073072</v>
       </c>
       <c r="F4" t="n">
-        <v>219.976641894432</v>
+        <v>219.9766418944309</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031622</v>
+        <v>27.59002526031566</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>762.640254207306</v>
+        <v>762.6402542073074</v>
       </c>
       <c r="N4" t="n">
-        <v>219.976641894432</v>
+        <v>219.9766418944309</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.553435746746744e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27261,13 +27261,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>21.27663894497402</v>
+        <v>21.27663894497289</v>
       </c>
       <c r="M4" t="n">
-        <v>762.6402542073059</v>
+        <v>762.6402542073072</v>
       </c>
       <c r="N4" t="n">
-        <v>219.976641894432</v>
+        <v>219.9766418944309</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,16 +27382,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>342.331036726009</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>354.3403448119457</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>379.2860204813953</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>387.7127122548189</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,13 +27421,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>329.5191316792017</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9431583895512</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>148.4072047390293</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>119.8550403043226</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27473,7 +27473,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>87.93414998721002</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27512,7 +27512,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27524,7 +27524,7 @@
         <v>178.1829599431613</v>
       </c>
       <c r="Y3" t="n">
-        <v>178.0926705169882</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27576,28 +27576,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>58.57201799137825</v>
       </c>
       <c r="R4" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>204.2892794115694</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>200.3555641679654</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>263.8702699959815</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>355.1438164031645</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,13 +27622,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>379.5690643921326</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>379.2860204813953</v>
+        <v>382.2367531018564</v>
       </c>
       <c r="G5" t="n">
-        <v>387.7127122548189</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27658,13 +27658,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>181.4300443259292</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>342.1410754181529</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,22 +27692,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>138.9431583895512</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>123.8903626416102</v>
+        <v>119.8550403043226</v>
       </c>
       <c r="E6" t="n">
-        <v>130.0550551950848</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>109.7534919028945</v>
+        <v>113.0422229139242</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27716,7 +27716,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.56780889232699</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>144.7980617381184</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>121.0254477578962</v>
       </c>
       <c r="E7" t="n">
-        <v>118.843937386253</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>117.8310227626151</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>286.3437308019645</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>198.119630128721</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>190.9946280917787</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>333.0637058669716</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>102.0794677298438</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>160.1534053809563</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>174.2291853588423</v>
       </c>
       <c r="U8" t="n">
-        <v>202.4789887025463</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>338.4482884447498</v>
       </c>
     </row>
     <row r="9">
@@ -27929,16 +27929,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>117.6665194445783</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>123.8418347830267</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>108.7784162501119</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>57.11607632062457</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27986,19 +27986,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>183.6462155752131</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>202.8283189556294</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>156.9063209981873</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>156.8160315720142</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>110.9803234717792</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>96.55438381764222</v>
       </c>
       <c r="G10" t="n">
-        <v>157.5282727446604</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,10 +28050,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>37.29537904640422</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28068,7 +28068,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>203.270979118539</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>169.7179891468046</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="C17" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="D17" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="E17" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="F17" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="G17" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="H17" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="I17" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="T17" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="U17" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="V17" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="W17" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="X17" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="Y17" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="C19" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="D19" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="E19" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="F19" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="G19" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="H19" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="I19" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="J19" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="K19" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="L19" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="M19" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="N19" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="O19" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="P19" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="Q19" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="R19" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="S19" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="T19" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="U19" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="V19" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="W19" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="X19" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
       <c r="Y19" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208161</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="C20" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="D20" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="E20" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="F20" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="G20" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="H20" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="I20" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="T20" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="U20" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="V20" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="W20" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="X20" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="Y20" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="C22" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="D22" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="E22" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="F22" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="G22" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="H22" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="I22" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="J22" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="K22" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="L22" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="M22" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="N22" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="O22" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="P22" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="Q22" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="R22" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="S22" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="T22" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="U22" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="V22" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="W22" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="X22" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="Y22" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="C23" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="D23" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="E23" t="n">
-        <v>42.51415100208192</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="F23" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="G23" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="H23" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="I23" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="T23" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="U23" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="V23" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="W23" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="X23" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="Y23" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="C25" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="D25" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="E25" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="F25" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="G25" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="H25" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="I25" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="J25" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="K25" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="L25" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="M25" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="N25" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="O25" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="P25" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="Q25" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="R25" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="S25" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="T25" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="U25" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="V25" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="W25" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="X25" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
       <c r="Y25" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208164</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="C26" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="D26" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="E26" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="F26" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="G26" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="H26" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="I26" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="T26" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="U26" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="V26" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="W26" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="X26" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="Y26" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="C28" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="D28" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="E28" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="F28" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="G28" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="H28" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="I28" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="J28" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="K28" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="L28" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="M28" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="N28" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="O28" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="P28" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="Q28" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="R28" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="S28" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="T28" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="U28" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="V28" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="W28" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="X28" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="Y28" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="C29" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="D29" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="E29" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="F29" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="G29" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="H29" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="I29" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="T29" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="U29" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="V29" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="W29" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="X29" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="Y29" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="C31" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="D31" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="E31" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="F31" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="G31" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="H31" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="I31" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="J31" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="K31" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="L31" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="M31" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="N31" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="O31" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="P31" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="Q31" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="R31" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="S31" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="T31" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="U31" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="V31" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="W31" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="X31" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
       <c r="Y31" t="n">
-        <v>42.51415100208138</v>
+        <v>42.51415100208172</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="C32" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="D32" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="E32" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="F32" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="G32" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="H32" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="I32" t="n">
         <v>44.09303404444009</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="T32" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="U32" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="V32" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="W32" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="X32" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="Y32" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="C34" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="D34" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="E34" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="F34" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="G34" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="H34" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="I34" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="J34" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="K34" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="L34" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="M34" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="N34" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="O34" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="P34" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="R34" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="S34" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="T34" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="U34" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="V34" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="W34" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="X34" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
       <c r="Y34" t="n">
-        <v>48.29925795745973</v>
+        <v>48.29925795745974</v>
       </c>
     </row>
     <row r="35">
@@ -30408,7 +30408,7 @@
         <v>48.29925795745972</v>
       </c>
       <c r="L40" t="n">
-        <v>48.29925795745891</v>
+        <v>48.29925795745972</v>
       </c>
       <c r="M40" t="n">
         <v>48.29925795745972</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="C41" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="D41" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="E41" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="F41" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="G41" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="H41" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="I41" t="n">
         <v>44.09303404444009</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="T41" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="U41" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="V41" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="W41" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="X41" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="Y41" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="C43" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="D43" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="E43" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="F43" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="G43" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="H43" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="I43" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="J43" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="K43" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="L43" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="M43" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="N43" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="O43" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="P43" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="R43" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="S43" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="T43" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="U43" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="V43" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="W43" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="X43" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="C44" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="D44" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="E44" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="F44" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="G44" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="H44" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="I44" t="n">
         <v>44.09303404444009</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="T44" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="U44" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="V44" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="W44" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="X44" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="Y44" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="C46" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="D46" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="E46" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="F46" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="G46" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="H46" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="I46" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="J46" t="n">
-        <v>48.29925795745906</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="K46" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795746024</v>
       </c>
       <c r="L46" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="M46" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="N46" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="O46" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="P46" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="R46" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="S46" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="T46" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="U46" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="V46" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="W46" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="X46" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.29925795745969</v>
+        <v>48.29925795745963</v>
       </c>
     </row>
   </sheetData>
@@ -34778,19 +34778,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P3" t="n">
         <v>27.59002526031614</v>
@@ -35018,16 +35018,16 @@
         <v>27.59002526031614</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M6" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N6" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35176,16 +35176,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>48.86666420529016</v>
+        <v>48.86666420528903</v>
       </c>
       <c r="M8" t="n">
-        <v>48.86666420529016</v>
+        <v>48.86666420528903</v>
       </c>
       <c r="N8" t="n">
-        <v>48.86666420529016</v>
+        <v>48.86666420528903</v>
       </c>
       <c r="O8" t="n">
-        <v>46.89225353032894</v>
+        <v>46.89225353032785</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>48.86666420529016</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>48.86666420529016</v>
+        <v>48.86666420528903</v>
       </c>
       <c r="N9" t="n">
-        <v>48.86666420529016</v>
+        <v>46.89225353032786</v>
       </c>
       <c r="O9" t="n">
-        <v>46.89225353032894</v>
+        <v>48.86666420528903</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>48.86666420528903</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>137.1447788028363</v>
+        <v>91.32437647230242</v>
       </c>
       <c r="K12" t="n">
         <v>235.03217272275</v>
@@ -35507,7 +35507,7 @@
         <v>306.9678558354927</v>
       </c>
       <c r="Q12" t="n">
-        <v>154.7764515932207</v>
+        <v>200.5968539237547</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>653.034827685605</v>
       </c>
       <c r="L14" t="n">
-        <v>670.3654104761647</v>
+        <v>670.3654104761612</v>
       </c>
       <c r="M14" t="n">
         <v>527.4612651288323</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.1447788028366</v>
+        <v>137.1447788028367</v>
       </c>
       <c r="K15" t="n">
         <v>235.03217272275</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>185.2477699223622</v>
+        <v>354.3443850944359</v>
       </c>
       <c r="K17" t="n">
-        <v>328.8894151144403</v>
+        <v>653.034827685605</v>
       </c>
       <c r="L17" t="n">
         <v>445.2909087681322</v>
       </c>
       <c r="M17" t="n">
-        <v>961.1329631675287</v>
+        <v>527.4612651288323</v>
       </c>
       <c r="N17" t="n">
-        <v>978.0034767582475</v>
+        <v>540.6565523462634</v>
       </c>
       <c r="O17" t="n">
         <v>497.0566903097332</v>
       </c>
       <c r="P17" t="n">
-        <v>389.3768895492707</v>
+        <v>711.1755977207533</v>
       </c>
       <c r="Q17" t="n">
-        <v>243.7464880564146</v>
+        <v>299.7243745923702</v>
       </c>
       <c r="R17" t="n">
         <v>55.51353613523429</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.1447788028366</v>
+        <v>137.1447788028367</v>
       </c>
       <c r="K18" t="n">
         <v>235.03217272275</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>86.02280069044437</v>
+        <v>86.0228006904446</v>
       </c>
       <c r="K19" t="n">
-        <v>245.1605476818378</v>
+        <v>245.160547681838</v>
       </c>
       <c r="L19" t="n">
-        <v>357.9190777194575</v>
+        <v>357.9190777194578</v>
       </c>
       <c r="M19" t="n">
-        <v>385.5584869234477</v>
+        <v>385.558486923448</v>
       </c>
       <c r="N19" t="n">
-        <v>382.8911708942544</v>
+        <v>382.8911708942546</v>
       </c>
       <c r="O19" t="n">
-        <v>340.7293442123403</v>
+        <v>340.7293442123405</v>
       </c>
       <c r="P19" t="n">
-        <v>273.9305021823915</v>
+        <v>273.9305021823918</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.4569785661495</v>
+        <v>118.4569785661497</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>185.2477699223622</v>
       </c>
       <c r="K20" t="n">
-        <v>328.8894151144403</v>
+        <v>653.034827685605</v>
       </c>
       <c r="L20" t="n">
-        <v>666.6476161469241</v>
+        <v>445.2909087681322</v>
       </c>
       <c r="M20" t="n">
         <v>527.4612651288323</v>
       </c>
       <c r="N20" t="n">
-        <v>978.0034767582475</v>
+        <v>540.6565523462634</v>
       </c>
       <c r="O20" t="n">
-        <v>497.0566903097332</v>
+        <v>877.8568715724786</v>
       </c>
       <c r="P20" t="n">
-        <v>389.3768895492707</v>
+        <v>555.449918166037</v>
       </c>
       <c r="Q20" t="n">
-        <v>456.0614787163192</v>
+        <v>243.7464880564146</v>
       </c>
       <c r="R20" t="n">
         <v>55.51353613523429</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.1447788028366</v>
+        <v>137.1447788028367</v>
       </c>
       <c r="K21" t="n">
         <v>235.03217272275</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>86.02280069044437</v>
+        <v>86.02280069044463</v>
       </c>
       <c r="K22" t="n">
-        <v>245.1605476818378</v>
+        <v>245.1605476818381</v>
       </c>
       <c r="L22" t="n">
-        <v>357.9190777194575</v>
+        <v>357.9190777194578</v>
       </c>
       <c r="M22" t="n">
-        <v>385.5584869234477</v>
+        <v>385.558486923448</v>
       </c>
       <c r="N22" t="n">
-        <v>382.8911708942544</v>
+        <v>382.8911708942546</v>
       </c>
       <c r="O22" t="n">
-        <v>340.7293442123403</v>
+        <v>340.7293442123405</v>
       </c>
       <c r="P22" t="n">
-        <v>273.9305021823915</v>
+        <v>273.9305021823918</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.4569785661495</v>
+        <v>118.4569785661497</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,19 +36364,19 @@
         <v>445.2909087681322</v>
       </c>
       <c r="M23" t="n">
-        <v>961.1329631675287</v>
+        <v>527.4612651288323</v>
       </c>
       <c r="N23" t="n">
-        <v>978.0034767582475</v>
+        <v>540.6565523462634</v>
       </c>
       <c r="O23" t="n">
-        <v>497.0566903097332</v>
+        <v>833.9616139290229</v>
       </c>
       <c r="P23" t="n">
-        <v>389.3768895492707</v>
+        <v>711.1755977207533</v>
       </c>
       <c r="Q23" t="n">
-        <v>243.7464880564146</v>
+        <v>456.0614787163192</v>
       </c>
       <c r="R23" t="n">
         <v>55.51353613523429</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>137.1447788028366</v>
+        <v>137.1447788028367</v>
       </c>
       <c r="K24" t="n">
         <v>235.03217272275</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>86.02280069044437</v>
+        <v>86.02280069044463</v>
       </c>
       <c r="K25" t="n">
-        <v>245.1605476818378</v>
+        <v>245.1605476818381</v>
       </c>
       <c r="L25" t="n">
-        <v>357.9190777194575</v>
+        <v>357.9190777194578</v>
       </c>
       <c r="M25" t="n">
-        <v>385.5584869234477</v>
+        <v>385.558486923448</v>
       </c>
       <c r="N25" t="n">
-        <v>382.8911708942544</v>
+        <v>382.8911708942546</v>
       </c>
       <c r="O25" t="n">
-        <v>340.7293442123403</v>
+        <v>340.7293442123405</v>
       </c>
       <c r="P25" t="n">
-        <v>273.9305021823915</v>
+        <v>273.9305021823918</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.4569785661495</v>
+        <v>118.4569785661497</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,19 +36598,19 @@
         <v>328.8894151144403</v>
       </c>
       <c r="L26" t="n">
-        <v>445.2909087681322</v>
+        <v>862.9521233185826</v>
       </c>
       <c r="M26" t="n">
-        <v>976.9747986216648</v>
+        <v>527.4612651288323</v>
       </c>
       <c r="N26" t="n">
-        <v>540.6565523462634</v>
+        <v>978.0034767582475</v>
       </c>
       <c r="O26" t="n">
-        <v>877.8568715724786</v>
+        <v>497.0566903097332</v>
       </c>
       <c r="P26" t="n">
-        <v>430.0817972443732</v>
+        <v>405.3873730375109</v>
       </c>
       <c r="Q26" t="n">
         <v>243.7464880564146</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.1447788028366</v>
+        <v>137.1447788028368</v>
       </c>
       <c r="K27" t="n">
         <v>235.03217272275</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>86.02280069044437</v>
+        <v>86.02280069044471</v>
       </c>
       <c r="K28" t="n">
-        <v>245.1605476818378</v>
+        <v>245.1605476818382</v>
       </c>
       <c r="L28" t="n">
-        <v>357.9190777194575</v>
+        <v>357.9190777194578</v>
       </c>
       <c r="M28" t="n">
-        <v>385.5584869234477</v>
+        <v>385.5584869234481</v>
       </c>
       <c r="N28" t="n">
-        <v>382.8911708942544</v>
+        <v>382.8911708942547</v>
       </c>
       <c r="O28" t="n">
-        <v>340.7293442123403</v>
+        <v>340.7293442123406</v>
       </c>
       <c r="P28" t="n">
-        <v>273.9305021823915</v>
+        <v>273.9305021823918</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.4569785661495</v>
+        <v>118.4569785661498</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,22 +36832,22 @@
         <v>185.2477699223622</v>
       </c>
       <c r="K29" t="n">
-        <v>497.3091481308927</v>
+        <v>328.8894151144403</v>
       </c>
       <c r="L29" t="n">
         <v>445.2909087681322</v>
       </c>
       <c r="M29" t="n">
-        <v>527.4612651288323</v>
+        <v>976.9747986216648</v>
       </c>
       <c r="N29" t="n">
-        <v>540.6565523462634</v>
+        <v>962.1616413041071</v>
       </c>
       <c r="O29" t="n">
-        <v>877.8568715724786</v>
+        <v>497.0566903097332</v>
       </c>
       <c r="P29" t="n">
-        <v>711.1755977207533</v>
+        <v>389.3768895492707</v>
       </c>
       <c r="Q29" t="n">
         <v>243.7464880564146</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>137.1447788028366</v>
+        <v>137.1447788028368</v>
       </c>
       <c r="K30" t="n">
         <v>235.03217272275</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>86.02280069044437</v>
+        <v>86.02280069044471</v>
       </c>
       <c r="K31" t="n">
-        <v>245.1605476818378</v>
+        <v>245.1605476818382</v>
       </c>
       <c r="L31" t="n">
-        <v>357.9190777194575</v>
+        <v>357.9190777194578</v>
       </c>
       <c r="M31" t="n">
-        <v>385.5584869234477</v>
+        <v>385.5584869234481</v>
       </c>
       <c r="N31" t="n">
-        <v>382.8911708942544</v>
+        <v>382.8911708942547</v>
       </c>
       <c r="O31" t="n">
-        <v>340.7293442123403</v>
+        <v>340.7293442123406</v>
       </c>
       <c r="P31" t="n">
-        <v>273.9305021823915</v>
+        <v>273.9305021823918</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.4569785661495</v>
+        <v>118.4569785661498</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>354.3443850944359</v>
+        <v>185.2477699223622</v>
       </c>
       <c r="K32" t="n">
         <v>328.8894151144403</v>
       </c>
       <c r="L32" t="n">
-        <v>445.2909087681322</v>
+        <v>862.9521233185826</v>
       </c>
       <c r="M32" t="n">
         <v>527.4612651288323</v>
@@ -37081,16 +37081,16 @@
         <v>540.6565523462634</v>
       </c>
       <c r="O32" t="n">
-        <v>514.9016852836689</v>
+        <v>866.167204609662</v>
       </c>
       <c r="P32" t="n">
-        <v>711.1755977207533</v>
+        <v>389.3768895492707</v>
       </c>
       <c r="Q32" t="n">
-        <v>456.0614787163192</v>
+        <v>243.7464880564146</v>
       </c>
       <c r="R32" t="n">
-        <v>121.2299560082167</v>
+        <v>55.51353613523429</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>91.80790764582272</v>
+        <v>91.80790764582274</v>
       </c>
       <c r="K34" t="n">
         <v>250.9456546372162</v>
@@ -37233,7 +37233,7 @@
         <v>363.7041846748359</v>
       </c>
       <c r="M34" t="n">
-        <v>391.343593878826</v>
+        <v>391.3435938788261</v>
       </c>
       <c r="N34" t="n">
         <v>388.6762778496328</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>185.2477699223622</v>
+        <v>354.3443850944359</v>
       </c>
       <c r="K35" t="n">
         <v>328.8894151144403</v>
@@ -37312,7 +37312,7 @@
         <v>445.2909087681322</v>
       </c>
       <c r="M35" t="n">
-        <v>876.886069567228</v>
+        <v>527.4612651288323</v>
       </c>
       <c r="N35" t="n">
         <v>978.0034767582475</v>
@@ -37321,7 +37321,7 @@
         <v>497.0566903097332</v>
       </c>
       <c r="P35" t="n">
-        <v>389.3768895492707</v>
+        <v>569.7050788155929</v>
       </c>
       <c r="Q35" t="n">
         <v>243.7464880564146</v>
@@ -37543,22 +37543,22 @@
         <v>185.2477699223622</v>
       </c>
       <c r="K38" t="n">
-        <v>328.8894151144403</v>
+        <v>653.034827685605</v>
       </c>
       <c r="L38" t="n">
         <v>445.2909087681322</v>
       </c>
       <c r="M38" t="n">
-        <v>976.9747986216648</v>
+        <v>527.4612651288323</v>
       </c>
       <c r="N38" t="n">
-        <v>877.9147477038107</v>
+        <v>540.6565523462634</v>
       </c>
       <c r="O38" t="n">
-        <v>497.0566903097332</v>
+        <v>877.8568715724786</v>
       </c>
       <c r="P38" t="n">
-        <v>389.3768895492707</v>
+        <v>471.2030245657402</v>
       </c>
       <c r="Q38" t="n">
         <v>243.7464880564146</v>
@@ -37704,7 +37704,7 @@
         <v>250.9456546372161</v>
       </c>
       <c r="L40" t="n">
-        <v>363.7041846748351</v>
+        <v>363.7041846748359</v>
       </c>
       <c r="M40" t="n">
         <v>391.343593878826</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>354.3443850944359</v>
+        <v>185.2477699223622</v>
       </c>
       <c r="K41" t="n">
         <v>328.8894151144403</v>
@@ -37786,22 +37786,22 @@
         <v>445.2909087681322</v>
       </c>
       <c r="M41" t="n">
-        <v>527.4612651288323</v>
+        <v>976.9747986216648</v>
       </c>
       <c r="N41" t="n">
-        <v>540.6565523462634</v>
+        <v>877.9147477038111</v>
       </c>
       <c r="O41" t="n">
-        <v>727.2166759435738</v>
+        <v>497.0566903097332</v>
       </c>
       <c r="P41" t="n">
-        <v>711.1755977207533</v>
+        <v>389.3768895492707</v>
       </c>
       <c r="Q41" t="n">
         <v>243.7464880564146</v>
       </c>
       <c r="R41" t="n">
-        <v>121.2299560082167</v>
+        <v>55.51353613523429</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>91.80790764582268</v>
+        <v>91.80790764582262</v>
       </c>
       <c r="K43" t="n">
         <v>250.9456546372161</v>
       </c>
       <c r="L43" t="n">
-        <v>363.7041846748359</v>
+        <v>363.7041846748357</v>
       </c>
       <c r="M43" t="n">
         <v>391.343593878826</v>
       </c>
       <c r="N43" t="n">
-        <v>388.6762778496328</v>
+        <v>388.6762778496326</v>
       </c>
       <c r="O43" t="n">
         <v>346.5144511677186</v>
@@ -37956,7 +37956,7 @@
         <v>279.7156091377698</v>
       </c>
       <c r="Q43" t="n">
-        <v>124.2420855215278</v>
+        <v>124.2420855215277</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>185.2477699223622</v>
+        <v>354.3443850944359</v>
       </c>
       <c r="K44" t="n">
         <v>328.8894151144403</v>
@@ -38023,22 +38023,22 @@
         <v>445.2909087681322</v>
       </c>
       <c r="M44" t="n">
-        <v>976.9747986216648</v>
+        <v>527.4612651288323</v>
       </c>
       <c r="N44" t="n">
-        <v>877.9147477038107</v>
+        <v>540.6565523462634</v>
       </c>
       <c r="O44" t="n">
-        <v>497.0566903097332</v>
+        <v>514.9016852836698</v>
       </c>
       <c r="P44" t="n">
-        <v>389.3768895492707</v>
+        <v>711.1755977207533</v>
       </c>
       <c r="Q44" t="n">
-        <v>243.7464880564146</v>
+        <v>456.0614787163192</v>
       </c>
       <c r="R44" t="n">
-        <v>55.51353613523429</v>
+        <v>121.2299560082167</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>91.80790764582206</v>
+        <v>91.80790764582262</v>
       </c>
       <c r="K46" t="n">
-        <v>250.9456546372161</v>
+        <v>250.9456546372167</v>
       </c>
       <c r="L46" t="n">
-        <v>363.7041846748358</v>
+        <v>363.7041846748357</v>
       </c>
       <c r="M46" t="n">
         <v>391.343593878826</v>
       </c>
       <c r="N46" t="n">
-        <v>388.6762778496327</v>
+        <v>388.6762778496326</v>
       </c>
       <c r="O46" t="n">
         <v>346.5144511677186</v>
@@ -38193,7 +38193,7 @@
         <v>279.7156091377698</v>
       </c>
       <c r="Q46" t="n">
-        <v>124.2420855215278</v>
+        <v>124.2420855215277</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
